--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_16_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_16_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1542753.21668824</v>
+        <v>-1543491.318746219</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1603542.794364619</v>
+        <v>1603542.794364617</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681853</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5299779071684</v>
       </c>
       <c r="C11" t="n">
-        <v>244.798663594716</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.4183006703718</v>
+        <v>13.23668450790117</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>285.1074313963142</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1417995066252</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5651068917549</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.73868095902183</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.68013037605205</v>
+        <v>71.68013037605208</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47378334587783</v>
+        <v>98.47378334587785</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2492087872794</v>
+        <v>129.2492087872795</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.343684916328</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>61.54380829175366</v>
+        <v>248.6751670469428</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.5006396670092</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>133.4345724958728</v>
+        <v>43.1856935261182</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>48.83915184317436</v>
       </c>
       <c r="D12" t="n">
-        <v>23.92599149041892</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>21.31979999932265</v>
+        <v>21.31979999932267</v>
       </c>
       <c r="G12" t="n">
-        <v>13.55505769437127</v>
+        <v>13.55505769437128</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.20360100342836</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S12" t="n">
-        <v>41.5423484618033</v>
+        <v>41.54234846180331</v>
       </c>
       <c r="T12" t="n">
-        <v>75.06056880692617</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6386428286193</v>
+        <v>102.4522107443927</v>
       </c>
       <c r="V12" t="n">
-        <v>109.7222989554285</v>
+        <v>140.1439616626744</v>
       </c>
       <c r="W12" t="n">
-        <v>127.8029146657734</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>82.27519752425162</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.89725940645717</v>
+        <v>57.89725940645718</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1501208469757</v>
+        <v>45.15012084697571</v>
       </c>
       <c r="D13" t="n">
-        <v>26.81913443029272</v>
+        <v>26.81913443029273</v>
       </c>
       <c r="E13" t="n">
-        <v>24.78819208897254</v>
+        <v>24.78819208897255</v>
       </c>
       <c r="F13" t="n">
-        <v>23.97258932557786</v>
+        <v>23.97258932557787</v>
       </c>
       <c r="G13" t="n">
-        <v>45.4669719039529</v>
+        <v>45.46697190395264</v>
       </c>
       <c r="H13" t="n">
-        <v>37.34774107736207</v>
+        <v>37.34774107736209</v>
       </c>
       <c r="I13" t="n">
-        <v>24.46938936863564</v>
+        <v>24.46938936863566</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58498174211506</v>
+        <v>40.58498174211509</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05491548013248</v>
+        <v>96.05491548013249</v>
       </c>
       <c r="T13" t="n">
         <v>105.1368800644955</v>
@@ -1594,7 +1594,7 @@
         <v>103.9539278480826</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.56224178354158</v>
+        <v>96.56224178354159</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5299779071684</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.798663594716</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.4183006703718</v>
       </c>
       <c r="E14" t="n">
         <v>260.9316036710608</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1417995066251</v>
+        <v>292.1417995066252</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5651068917548</v>
+        <v>210.5651068917549</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73868095902178</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68013037605202</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3467894382927</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3436849163279</v>
+        <v>162.7283849661774</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.6751670469428</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.98125268134548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51.57148340080562</v>
+        <v>43.1856935261182</v>
       </c>
       <c r="C15" t="n">
-        <v>48.83915184317432</v>
+        <v>48.83915184317436</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>33.84700162294716</v>
+        <v>33.8470016229472</v>
       </c>
       <c r="F15" t="n">
-        <v>21.31979999932263</v>
+        <v>21.31979999932267</v>
       </c>
       <c r="G15" t="n">
-        <v>13.55505769437124</v>
+        <v>13.55505769437128</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7416892983144</v>
+        <v>39.32352056537427</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7287805460299</v>
+        <v>41.54234846180331</v>
       </c>
       <c r="T15" t="n">
         <v>197.2470008911528</v>
@@ -1743,7 +1743,7 @@
         <v>102.4522107443927</v>
       </c>
       <c r="V15" t="n">
-        <v>109.7222989554285</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.89725940645714</v>
+        <v>57.89725940645718</v>
       </c>
       <c r="C16" t="n">
-        <v>45.15012084697567</v>
+        <v>45.15012084697571</v>
       </c>
       <c r="D16" t="n">
-        <v>26.81913443029269</v>
+        <v>26.81913443029273</v>
       </c>
       <c r="E16" t="n">
-        <v>24.78819208897251</v>
+        <v>24.78819208897255</v>
       </c>
       <c r="F16" t="n">
-        <v>23.97258932557783</v>
+        <v>23.97258932557787</v>
       </c>
       <c r="G16" t="n">
-        <v>45.46697190395287</v>
+        <v>45.46697190395292</v>
       </c>
       <c r="H16" t="n">
-        <v>37.34774107736204</v>
+        <v>37.34774107736209</v>
       </c>
       <c r="I16" t="n">
-        <v>24.46938936863562</v>
+        <v>24.46938936863566</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58498174211505</v>
+        <v>40.58498174211509</v>
       </c>
       <c r="S16" t="n">
-        <v>96.05491548013245</v>
+        <v>96.05491548013249</v>
       </c>
       <c r="T16" t="n">
         <v>105.1368800644955</v>
@@ -1831,7 +1831,7 @@
         <v>103.9539278480826</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.56224178354155</v>
+        <v>96.56224178354159</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>143.7695513325315</v>
       </c>
       <c r="D17" t="n">
-        <v>133.3891884081871</v>
+        <v>133.3891884081873</v>
       </c>
       <c r="E17" t="n">
         <v>159.9024914088763</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.07931773117487</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7287805460299</v>
+        <v>150.1928942907842</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U18" t="n">
         <v>224.6386428286193</v>
       </c>
       <c r="V18" t="n">
-        <v>8.693186693244002</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>26.77380240358892</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>28.37790274984458</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.107767802311041</v>
+        <v>4.107767802311042</v>
       </c>
       <c r="U19" t="n">
         <v>62.82384322963881</v>
@@ -2062,7 +2062,7 @@
         <v>29.72080672052803</v>
       </c>
       <c r="W19" t="n">
-        <v>62.87703254100441</v>
+        <v>258.5914882220513</v>
       </c>
       <c r="X19" t="n">
         <v>2.924815585898131</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.22009652509496</v>
+        <v>28.22009652509497</v>
       </c>
       <c r="V20" t="n">
         <v>105.3176771761082</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.20360100342836</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S21" t="n">
-        <v>95.54861787461947</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2470008911528</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.423098482208227</v>
+        <v>224.6386428286193</v>
       </c>
       <c r="V21" t="n">
-        <v>8.693186693244002</v>
+        <v>78.27326111260477</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.06105169286733</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6534039881795</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.107767802311041</v>
+        <v>4.107767802311042</v>
       </c>
       <c r="U22" t="n">
         <v>62.82384322963881</v>
@@ -2299,7 +2299,7 @@
         <v>29.72080672052803</v>
       </c>
       <c r="W22" t="n">
-        <v>62.87703254100441</v>
+        <v>258.5914882220512</v>
       </c>
       <c r="X22" t="n">
         <v>2.924815585898131</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>22.15694806190033</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7414897785979</v>
@@ -2415,7 +2415,7 @@
         <v>107.7416892983144</v>
       </c>
       <c r="I24" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7287805460299</v>
+        <v>163.72878054603</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2470008911528</v>
+        <v>21.41642025534144</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386428286193</v>
@@ -2460,7 +2460,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>159.5341731615887</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>59.98343169308812</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.107767802311041</v>
+        <v>4.107767802311042</v>
       </c>
       <c r="U25" t="n">
         <v>62.82384322963881</v>
@@ -2539,10 +2539,10 @@
         <v>62.87703254100441</v>
       </c>
       <c r="X25" t="n">
-        <v>2.924815585898131</v>
+        <v>138.6558395738568</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.18028251945817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.6290109050978</v>
+        <v>241.6290109050979</v>
       </c>
       <c r="C26" t="n">
         <v>224.8976965926454</v>
@@ -2561,7 +2561,7 @@
         <v>214.5173336683012</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0306366689902</v>
+        <v>241.0306366689903</v>
       </c>
       <c r="F26" t="n">
         <v>265.2064643942437</v>
@@ -2573,7 +2573,7 @@
         <v>190.6641398896843</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83771395695123</v>
+        <v>42.83771395695128</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.77916337398148</v>
+        <v>51.77916337398152</v>
       </c>
       <c r="T26" t="n">
-        <v>78.57281634380726</v>
+        <v>78.57281634380729</v>
       </c>
       <c r="U26" t="n">
         <v>109.3482417852089</v>
       </c>
       <c r="V26" t="n">
-        <v>186.4458224362221</v>
+        <v>186.4458224362222</v>
       </c>
       <c r="W26" t="n">
         <v>208.4427179142574</v>
@@ -2634,13 +2634,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>145.1297566745555</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>120.2165963218003</v>
       </c>
       <c r="E27" t="n">
-        <v>13.94603462087662</v>
+        <v>13.94603462087665</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.20360100342836</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S27" t="n">
-        <v>21.64138145973273</v>
+        <v>163.72878054603</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2470008911528</v>
+        <v>55.15960180485563</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6386428286193</v>
+        <v>82.55124374232217</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>89.82133195335794</v>
       </c>
       <c r="W27" t="n">
-        <v>107.9019476637028</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>62.37423052218105</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.99629240438659</v>
+        <v>37.99629240438662</v>
       </c>
       <c r="C28" t="n">
-        <v>25.24915384490512</v>
+        <v>25.24915384490515</v>
       </c>
       <c r="D28" t="n">
-        <v>6.918167428222148</v>
+        <v>6.918167428222176</v>
       </c>
       <c r="E28" t="n">
-        <v>4.887225086901964</v>
+        <v>4.887225086901992</v>
       </c>
       <c r="F28" t="n">
-        <v>4.071622323507285</v>
+        <v>4.071622323507313</v>
       </c>
       <c r="G28" t="n">
-        <v>25.56600490188233</v>
+        <v>25.56600490188236</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4467740752915</v>
+        <v>17.44677407529153</v>
       </c>
       <c r="I28" t="n">
-        <v>4.568422366565071</v>
+        <v>4.568422366565104</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.6840147400445</v>
+        <v>20.68401474004454</v>
       </c>
       <c r="S28" t="n">
-        <v>76.15394847806191</v>
+        <v>76.15394847806193</v>
       </c>
       <c r="T28" t="n">
-        <v>85.23591306242496</v>
+        <v>85.23591306242498</v>
       </c>
       <c r="U28" t="n">
-        <v>143.9519884897527</v>
+        <v>143.9519884897528</v>
       </c>
       <c r="V28" t="n">
-        <v>110.8489519806419</v>
+        <v>110.848951980642</v>
       </c>
       <c r="W28" t="n">
-        <v>144.0051778011183</v>
+        <v>144.0051778011184</v>
       </c>
       <c r="X28" t="n">
-        <v>84.05296084601204</v>
+        <v>84.05296084601207</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.66127478147101</v>
+        <v>76.66127478147104</v>
       </c>
     </row>
     <row r="29">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.28472652404764</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.64138145973276</v>
+        <v>163.72878054603</v>
       </c>
       <c r="T30" t="n">
         <v>197.2470008911528</v>
       </c>
       <c r="U30" t="n">
-        <v>127.1134657894038</v>
+        <v>224.6386428286193</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>89.82133195335794</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>229.6677707142129</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>61.58375233228884</v>
       </c>
     </row>
     <row r="31">
@@ -2968,7 +2968,7 @@
         <v>17.44677407529153</v>
       </c>
       <c r="I31" t="n">
-        <v>4.568422366565099</v>
+        <v>4.568422366565104</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.68401474004453</v>
+        <v>20.68401474004454</v>
       </c>
       <c r="S31" t="n">
         <v>76.15394847806193</v>
@@ -3047,7 +3047,7 @@
         <v>190.6641398896843</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83771395695123</v>
+        <v>42.83771395695125</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.77916337398148</v>
+        <v>51.77916337398149</v>
       </c>
       <c r="T32" t="n">
         <v>78.57281634380726</v>
@@ -3108,13 +3108,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>28.93818484110378</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>13.94603462087662</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -3123,10 +3123,10 @@
         <v>135.7414897785979</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7287805460299</v>
+        <v>163.72878054603</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2470008911528</v>
+        <v>55.1596018048556</v>
       </c>
       <c r="U33" t="n">
         <v>224.6386428286193</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>183.5873545235846</v>
       </c>
       <c r="W33" t="n">
-        <v>107.9019476637028</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>113.6820042727639</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>61.58375233228881</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3205,7 @@
         <v>17.4467740752915</v>
       </c>
       <c r="I34" t="n">
-        <v>4.568422366565071</v>
+        <v>4.568422366565075</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.6840147400445</v>
+        <v>20.68401474004451</v>
       </c>
       <c r="S34" t="n">
         <v>76.15394847806191</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.5008656449839</v>
+        <v>160.5008656449838</v>
       </c>
       <c r="C35" t="n">
         <v>143.7695513325314</v>
@@ -3272,13 +3272,13 @@
         <v>133.3891884081872</v>
       </c>
       <c r="E35" t="n">
-        <v>159.9024914088763</v>
+        <v>159.9024914088762</v>
       </c>
       <c r="F35" t="n">
-        <v>184.0783191341297</v>
+        <v>184.0783191341296</v>
       </c>
       <c r="G35" t="n">
-        <v>191.1126872444407</v>
+        <v>191.1126872444406</v>
       </c>
       <c r="H35" t="n">
         <v>109.5359946295703</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.2200965250949</v>
+        <v>28.22009652509487</v>
       </c>
       <c r="V35" t="n">
-        <v>105.3176771761082</v>
+        <v>105.3176771761081</v>
       </c>
       <c r="W35" t="n">
         <v>127.3145726541434</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>54.3547046070985</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -3354,16 +3354,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.20360100342836</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7287805460299</v>
+        <v>163.72878054603</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2470008911528</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.42309848220817</v>
+        <v>1.423098482208142</v>
       </c>
       <c r="V36" t="n">
-        <v>8.693186693243945</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>26.77380240358886</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.5048050405242</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>50.81665696883874</v>
+        <v>4.107767802310956</v>
       </c>
       <c r="U37" t="n">
-        <v>62.82384322963875</v>
+        <v>62.82384322963873</v>
       </c>
       <c r="V37" t="n">
-        <v>29.72080672052797</v>
+        <v>29.72080672052795</v>
       </c>
       <c r="W37" t="n">
-        <v>62.87703254100435</v>
+        <v>258.5914882220516</v>
       </c>
       <c r="X37" t="n">
-        <v>2.924815585898074</v>
+        <v>2.924815585898045</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.5008656449839</v>
+        <v>160.5008656449838</v>
       </c>
       <c r="C38" t="n">
         <v>143.7695513325314</v>
@@ -3509,13 +3509,13 @@
         <v>133.3891884081872</v>
       </c>
       <c r="E38" t="n">
-        <v>159.9024914088763</v>
+        <v>159.9024914088762</v>
       </c>
       <c r="F38" t="n">
-        <v>184.0783191341297</v>
+        <v>184.0783191341296</v>
       </c>
       <c r="G38" t="n">
-        <v>191.1126872444407</v>
+        <v>191.1126872444406</v>
       </c>
       <c r="H38" t="n">
         <v>109.5359946295703</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.2200965250949</v>
+        <v>28.22009652509487</v>
       </c>
       <c r="V38" t="n">
-        <v>105.3176771761082</v>
+        <v>105.3176771761081</v>
       </c>
       <c r="W38" t="n">
         <v>127.3145726541434</v>
@@ -3588,10 +3588,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>64.29402030724435</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.72878054603</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2470008911528</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>224.6386428286193</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>8.693186693243916</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>147.9556696232128</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>159.5341731615887</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.107767802310984</v>
+        <v>4.107767802310956</v>
       </c>
       <c r="U40" t="n">
-        <v>91.20174597948368</v>
+        <v>99.00412574909741</v>
       </c>
       <c r="V40" t="n">
-        <v>29.72080672052797</v>
+        <v>29.72080672052795</v>
       </c>
       <c r="W40" t="n">
-        <v>62.87703254100435</v>
+        <v>62.87703254100433</v>
       </c>
       <c r="X40" t="n">
-        <v>2.924815585898074</v>
+        <v>2.924815585898045</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.77542544140161</v>
+        <v>30.77542544140162</v>
       </c>
       <c r="V41" t="n">
         <v>107.8730060924149</v>
@@ -3822,16 +3822,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H42" t="n">
         <v>107.7416892983144</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>74.74119514721261</v>
       </c>
       <c r="T42" t="n">
         <v>197.2470008911528</v>
@@ -3882,7 +3882,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>51.84305972754052</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.93224458499427</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.66309671861769</v>
+        <v>189.6009078181312</v>
       </c>
       <c r="U43" t="n">
         <v>65.37917214594546</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.77542544140161</v>
+        <v>30.77542544140162</v>
       </c>
       <c r="V44" t="n">
         <v>107.8730060924149</v>
@@ -4056,25 +4056,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>89.15302797246237</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.19686132363064</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7416892983144</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.20360100342836</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>197.2470008911528</v>
       </c>
       <c r="U45" t="n">
-        <v>3.978427398514877</v>
+        <v>224.6386428286193</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>29.32913131989557</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.854119608829808</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.66309671861769</v>
+        <v>6.663096718617691</v>
       </c>
       <c r="U46" t="n">
         <v>65.37917214594546</v>
@@ -4198,7 +4198,7 @@
         <v>65.43236145731106</v>
       </c>
       <c r="X46" t="n">
-        <v>5.48014450220478</v>
+        <v>21.08140267051597</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1101.063705918752</v>
+        <v>611.3482600469997</v>
       </c>
       <c r="C11" t="n">
-        <v>853.7923285503518</v>
+        <v>611.3482600469997</v>
       </c>
       <c r="D11" t="n">
-        <v>617.0061662570471</v>
+        <v>597.9778716551799</v>
       </c>
       <c r="E11" t="n">
-        <v>617.0061662570471</v>
+        <v>597.9778716551799</v>
       </c>
       <c r="F11" t="n">
-        <v>329.0188618163256</v>
+        <v>309.9905672144585</v>
       </c>
       <c r="G11" t="n">
-        <v>33.92613504195667</v>
+        <v>309.9905672144585</v>
       </c>
       <c r="H11" t="n">
-        <v>33.92613504195667</v>
+        <v>97.29854005106972</v>
       </c>
       <c r="I11" t="n">
-        <v>33.92613504195667</v>
+        <v>33.92613504195675</v>
       </c>
       <c r="J11" t="n">
-        <v>77.51546089597885</v>
+        <v>77.5154608959789</v>
       </c>
       <c r="K11" t="n">
         <v>265.1211537156915</v>
@@ -5051,40 +5051,40 @@
         <v>881.8392985578064</v>
       </c>
       <c r="N11" t="n">
-        <v>1195.113873007723</v>
+        <v>1203.70196943432</v>
       </c>
       <c r="O11" t="n">
-        <v>1452.911314802824</v>
+        <v>1461.499411229421</v>
       </c>
       <c r="P11" t="n">
-        <v>1635.996673852328</v>
+        <v>1644.584770278925</v>
       </c>
       <c r="Q11" t="n">
-        <v>1696.306752097834</v>
+        <v>1696.306752097838</v>
       </c>
       <c r="R11" t="n">
-        <v>1696.306752097834</v>
+        <v>1696.306752097838</v>
       </c>
       <c r="S11" t="n">
-        <v>1623.902580000811</v>
+        <v>1623.902580000815</v>
       </c>
       <c r="T11" t="n">
-        <v>1524.434111974672</v>
+        <v>1524.434111974676</v>
       </c>
       <c r="U11" t="n">
-        <v>1393.879355623885</v>
+        <v>1393.879355623889</v>
       </c>
       <c r="V11" t="n">
-        <v>1393.879355623885</v>
+        <v>1393.879355623889</v>
       </c>
       <c r="W11" t="n">
-        <v>1163.229168839715</v>
+        <v>1393.879355623889</v>
       </c>
       <c r="X11" t="n">
-        <v>1101.063705918752</v>
+        <v>1142.692318202735</v>
       </c>
       <c r="Y11" t="n">
-        <v>1101.063705918752</v>
+        <v>875.5199549027254</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>610.0933216324909</v>
+        <v>423.6835762729544</v>
       </c>
       <c r="C12" t="n">
-        <v>437.340206554308</v>
+        <v>374.3510996636874</v>
       </c>
       <c r="D12" t="n">
-        <v>413.1725383821677</v>
+        <v>226.7627930226313</v>
       </c>
       <c r="E12" t="n">
-        <v>255.5630093850223</v>
+        <v>69.153264025486</v>
       </c>
       <c r="F12" t="n">
-        <v>234.027857870555</v>
+        <v>47.61811251101865</v>
       </c>
       <c r="G12" t="n">
-        <v>220.3358804014931</v>
+        <v>33.92613504195675</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5058912112766</v>
+        <v>33.92613504195675</v>
       </c>
       <c r="I12" t="n">
-        <v>33.92613504195667</v>
+        <v>33.92613504195675</v>
       </c>
       <c r="J12" t="n">
-        <v>33.92613504195667</v>
+        <v>67.6696840857168</v>
       </c>
       <c r="K12" t="n">
-        <v>218.2048481834408</v>
+        <v>251.9483972272009</v>
       </c>
       <c r="L12" t="n">
-        <v>526.839926371058</v>
+        <v>560.5834754148181</v>
       </c>
       <c r="M12" t="n">
-        <v>939.8026993145529</v>
+        <v>973.5462483583128</v>
       </c>
       <c r="N12" t="n">
-        <v>993.4602893078397</v>
+        <v>1393.382169502528</v>
       </c>
       <c r="O12" t="n">
-        <v>1327.698079748305</v>
+        <v>1393.382169502528</v>
       </c>
       <c r="P12" t="n">
-        <v>1579.526832422212</v>
+        <v>1645.210922176435</v>
       </c>
       <c r="Q12" t="n">
-        <v>1696.306752097834</v>
+        <v>1696.306752097838</v>
       </c>
       <c r="R12" t="n">
-        <v>1618.323316740835</v>
+        <v>1618.323316740839</v>
       </c>
       <c r="S12" t="n">
-        <v>1576.3613485976</v>
+        <v>1576.361348597604</v>
       </c>
       <c r="T12" t="n">
-        <v>1500.542592226967</v>
+        <v>1377.121953758055</v>
       </c>
       <c r="U12" t="n">
-        <v>1273.634872198059</v>
+        <v>1273.634872198063</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.804267192575</v>
+        <v>1132.075314963038</v>
       </c>
       <c r="W12" t="n">
-        <v>1033.710413994825</v>
+        <v>879.5608232963712</v>
       </c>
       <c r="X12" t="n">
-        <v>950.604153869318</v>
+        <v>673.0339247019486</v>
       </c>
       <c r="Y12" t="n">
-        <v>744.8757180929684</v>
+        <v>467.3054889255991</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.2434472053603</v>
+        <v>264.2434472053601</v>
       </c>
       <c r="C13" t="n">
-        <v>218.6372645316475</v>
+        <v>218.6372645316472</v>
       </c>
       <c r="D13" t="n">
-        <v>191.547229753574</v>
+        <v>191.5472297535738</v>
       </c>
       <c r="E13" t="n">
-        <v>166.5086518859249</v>
+        <v>166.5086518859247</v>
       </c>
       <c r="F13" t="n">
-        <v>142.293915193422</v>
+        <v>142.2939151934218</v>
       </c>
       <c r="G13" t="n">
-        <v>96.36768094700486</v>
+        <v>96.367680947005</v>
       </c>
       <c r="H13" t="n">
-        <v>58.64268995977045</v>
+        <v>58.64268995977055</v>
       </c>
       <c r="I13" t="n">
-        <v>33.92613504195667</v>
+        <v>33.92613504195675</v>
       </c>
       <c r="J13" t="n">
-        <v>83.47153896724308</v>
+        <v>83.47153896724291</v>
       </c>
       <c r="K13" t="n">
-        <v>216.9754331305909</v>
+        <v>216.9754331305907</v>
       </c>
       <c r="L13" t="n">
-        <v>409.7896366833858</v>
+        <v>409.7896366833855</v>
       </c>
       <c r="M13" t="n">
-        <v>617.1024709467711</v>
+        <v>617.1024709467707</v>
       </c>
       <c r="N13" t="n">
-        <v>827.5033983254921</v>
+        <v>827.5033983254917</v>
       </c>
       <c r="O13" t="n">
-        <v>1015.74032333249</v>
+        <v>1015.740323332489</v>
       </c>
       <c r="P13" t="n">
         <v>1171.045532982324</v>
       </c>
       <c r="Q13" t="n">
-        <v>1232.626503369552</v>
+        <v>1232.626503369551</v>
       </c>
       <c r="R13" t="n">
         <v>1191.63157231691</v>
@@ -5227,22 +5227,22 @@
         <v>1094.606405165261</v>
       </c>
       <c r="T13" t="n">
-        <v>988.4075364132453</v>
+        <v>988.4075364132449</v>
       </c>
       <c r="U13" t="n">
-        <v>822.8995005629188</v>
+        <v>822.8995005629184</v>
       </c>
       <c r="V13" t="n">
-        <v>690.8288753278556</v>
+        <v>690.8288753278554</v>
       </c>
       <c r="W13" t="n">
-        <v>525.267112900392</v>
+        <v>525.2671129003918</v>
       </c>
       <c r="X13" t="n">
-        <v>420.2631453770762</v>
+        <v>420.263145377076</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.7255274139029</v>
+        <v>322.7255274139027</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>868.8258376982542</v>
+        <v>1289.510972350846</v>
       </c>
       <c r="C14" t="n">
-        <v>868.8258376982542</v>
+        <v>1042.239594982446</v>
       </c>
       <c r="D14" t="n">
-        <v>868.8258376982542</v>
+        <v>805.4534326891417</v>
       </c>
       <c r="E14" t="n">
-        <v>605.2585612628393</v>
+        <v>541.8861562537265</v>
       </c>
       <c r="F14" t="n">
-        <v>605.2585612628393</v>
+        <v>541.8861562537265</v>
       </c>
       <c r="G14" t="n">
-        <v>310.1658344884705</v>
+        <v>246.7934294793576</v>
       </c>
       <c r="H14" t="n">
-        <v>97.47380732508176</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="I14" t="n">
         <v>34.10140231596885</v>
       </c>
       <c r="J14" t="n">
-        <v>77.69072816999103</v>
+        <v>77.69072816999099</v>
       </c>
       <c r="K14" t="n">
-        <v>265.2964209897037</v>
+        <v>265.2964209897036</v>
       </c>
       <c r="L14" t="n">
-        <v>550.0069502858448</v>
+        <v>550.0069502858447</v>
       </c>
       <c r="M14" t="n">
-        <v>882.0145658318186</v>
+        <v>882.0145658318183</v>
       </c>
       <c r="N14" t="n">
         <v>1203.877236708332</v>
       </c>
       <c r="O14" t="n">
-        <v>1461.674678503433</v>
+        <v>1461.674678503432</v>
       </c>
       <c r="P14" t="n">
         <v>1644.760037552937</v>
       </c>
       <c r="Q14" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R14" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="S14" t="n">
-        <v>1632.665943701421</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="T14" t="n">
-        <v>1632.665943701421</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="U14" t="n">
-        <v>1632.665943701421</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="V14" t="n">
-        <v>1424.234843258701</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="W14" t="n">
-        <v>1193.584656474531</v>
+        <v>1540.698009772001</v>
       </c>
       <c r="X14" t="n">
-        <v>1193.584656474531</v>
+        <v>1289.510972350846</v>
       </c>
       <c r="Y14" t="n">
-        <v>1132.99753255398</v>
+        <v>1289.510972350846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>409.2681942682672</v>
+        <v>417.7386890911831</v>
       </c>
       <c r="C15" t="n">
-        <v>359.9357176590001</v>
+        <v>368.406212481916</v>
       </c>
       <c r="D15" t="n">
-        <v>212.347411017944</v>
+        <v>220.8179058408599</v>
       </c>
       <c r="E15" t="n">
-        <v>178.1585204897145</v>
+        <v>186.6290153126304</v>
       </c>
       <c r="F15" t="n">
-        <v>156.6233689752472</v>
+        <v>165.0938637981631</v>
       </c>
       <c r="G15" t="n">
-        <v>142.9313915061854</v>
+        <v>151.4018863291012</v>
       </c>
       <c r="H15" t="n">
-        <v>34.10140231596885</v>
+        <v>111.6811584852888</v>
       </c>
       <c r="I15" t="n">
         <v>34.10140231596885</v>
       </c>
       <c r="J15" t="n">
-        <v>34.10140231596885</v>
+        <v>67.8449513597289</v>
       </c>
       <c r="K15" t="n">
-        <v>218.380115457453</v>
+        <v>252.123664501213</v>
       </c>
       <c r="L15" t="n">
-        <v>527.0151936450702</v>
+        <v>560.7587426888301</v>
       </c>
       <c r="M15" t="n">
-        <v>939.9779665885651</v>
+        <v>973.721515632325</v>
       </c>
       <c r="N15" t="n">
-        <v>1361.98282024868</v>
+        <v>1395.72636929244</v>
       </c>
       <c r="O15" t="n">
-        <v>1696.220610689144</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="P15" t="n">
-        <v>1696.220610689144</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="Q15" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R15" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="S15" t="n">
-        <v>1539.687509186291</v>
+        <v>1663.108147655207</v>
       </c>
       <c r="T15" t="n">
-        <v>1340.448114346743</v>
+        <v>1463.868752815658</v>
       </c>
       <c r="U15" t="n">
-        <v>1236.96103278675</v>
+        <v>1360.381671255666</v>
       </c>
       <c r="V15" t="n">
-        <v>1126.130427781267</v>
+        <v>1126.130427781266</v>
       </c>
       <c r="W15" t="n">
-        <v>873.6159361146005</v>
+        <v>873.6159361145998</v>
       </c>
       <c r="X15" t="n">
-        <v>667.089037520178</v>
+        <v>667.0890375201773</v>
       </c>
       <c r="Y15" t="n">
-        <v>461.3606017438284</v>
+        <v>461.3606017438277</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4187144793722</v>
+        <v>264.4187144793723</v>
       </c>
       <c r="C16" t="n">
-        <v>218.8125318056593</v>
+        <v>218.8125318056594</v>
       </c>
       <c r="D16" t="n">
-        <v>191.7224970275859</v>
+        <v>191.722497027586</v>
       </c>
       <c r="E16" t="n">
         <v>166.6839191599369</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4691824674341</v>
+        <v>142.469182467434</v>
       </c>
       <c r="G16" t="n">
-        <v>96.54294822101693</v>
+        <v>96.5429482210169</v>
       </c>
       <c r="H16" t="n">
-        <v>58.81795723378252</v>
+        <v>58.81795723378247</v>
       </c>
       <c r="I16" t="n">
         <v>34.10140231596885</v>
       </c>
       <c r="J16" t="n">
-        <v>83.64680624125506</v>
+        <v>83.64680624125515</v>
       </c>
       <c r="K16" t="n">
-        <v>217.1507004046029</v>
+        <v>217.150700404603</v>
       </c>
       <c r="L16" t="n">
         <v>409.9649039573978</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2777382207829</v>
+        <v>617.277738220783</v>
       </c>
       <c r="N16" t="n">
         <v>827.678665599504</v>
@@ -5452,34 +5452,34 @@
         <v>1015.915590606502</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.220800256337</v>
+        <v>1171.220800256336</v>
       </c>
       <c r="Q16" t="n">
         <v>1232.801770643563</v>
       </c>
       <c r="R16" t="n">
-        <v>1191.806839590921</v>
+        <v>1191.806839590922</v>
       </c>
       <c r="S16" t="n">
-        <v>1094.781672439272</v>
+        <v>1094.781672439273</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5828036872566</v>
+        <v>988.5828036872572</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0747678369303</v>
+        <v>823.0747678369306</v>
       </c>
       <c r="V16" t="n">
-        <v>691.0041426018671</v>
+        <v>691.0041426018674</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4423801744036</v>
+        <v>525.442380174404</v>
       </c>
       <c r="X16" t="n">
-        <v>420.438412651088</v>
+        <v>420.4384126510882</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.9007946879148</v>
+        <v>322.9007946879149</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>965.2006267177222</v>
+        <v>965.2006267177217</v>
       </c>
       <c r="C17" t="n">
-        <v>819.9788576949632</v>
+        <v>819.9788576949626</v>
       </c>
       <c r="D17" t="n">
-        <v>685.2423037472994</v>
+        <v>685.2423037472987</v>
       </c>
       <c r="E17" t="n">
-        <v>523.7246356575253</v>
+        <v>523.7246356575246</v>
       </c>
       <c r="F17" t="n">
-        <v>337.7869395624447</v>
+        <v>337.786939562444</v>
       </c>
       <c r="G17" t="n">
         <v>144.7438211337167</v>
@@ -5513,16 +5513,16 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J17" t="n">
-        <v>77.69072816999103</v>
+        <v>77.69072816999108</v>
       </c>
       <c r="K17" t="n">
-        <v>265.2964209897037</v>
+        <v>265.2964209897038</v>
       </c>
       <c r="L17" t="n">
-        <v>550.0069502858448</v>
+        <v>550.0069502858449</v>
       </c>
       <c r="M17" t="n">
-        <v>882.0145658318186</v>
+        <v>882.0145658318187</v>
       </c>
       <c r="N17" t="n">
         <v>1203.877236708332</v>
@@ -5534,31 +5534,31 @@
         <v>1644.760037552937</v>
       </c>
       <c r="Q17" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R17" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="S17" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="T17" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="U17" t="n">
-        <v>1676.564967793297</v>
+        <v>1676.564967793296</v>
       </c>
       <c r="V17" t="n">
-        <v>1570.183475696218</v>
+        <v>1570.183475696217</v>
       </c>
       <c r="W17" t="n">
-        <v>1441.582897257689</v>
+        <v>1441.582897257688</v>
       </c>
       <c r="X17" t="n">
-        <v>1292.445468182176</v>
+        <v>1292.445468182175</v>
       </c>
       <c r="Y17" t="n">
-        <v>1127.322713227807</v>
+        <v>1127.322713227806</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>502.5795535968662</v>
+        <v>660.1890825940114</v>
       </c>
       <c r="C18" t="n">
-        <v>502.5795535968662</v>
+        <v>660.1890825940114</v>
       </c>
       <c r="D18" t="n">
-        <v>502.5795535968662</v>
+        <v>660.1890825940114</v>
       </c>
       <c r="E18" t="n">
         <v>502.5795535968662</v>
@@ -5592,52 +5592,52 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J18" t="n">
-        <v>67.84495135972892</v>
+        <v>67.8449513597289</v>
       </c>
       <c r="K18" t="n">
-        <v>252.1236645012131</v>
+        <v>252.123664501213</v>
       </c>
       <c r="L18" t="n">
-        <v>560.7587426888302</v>
+        <v>560.7587426888301</v>
       </c>
       <c r="M18" t="n">
-        <v>580.2187993483344</v>
+        <v>973.721515632325</v>
       </c>
       <c r="N18" t="n">
         <v>1002.223653008449</v>
       </c>
       <c r="O18" t="n">
-        <v>1336.461443448914</v>
+        <v>1336.461443448913</v>
       </c>
       <c r="P18" t="n">
         <v>1588.290196122821</v>
       </c>
       <c r="Q18" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.086680441445</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="S18" t="n">
-        <v>1461.704073829293</v>
+        <v>1553.360121565327</v>
       </c>
       <c r="T18" t="n">
-        <v>1461.704073829293</v>
+        <v>1354.120726725779</v>
       </c>
       <c r="U18" t="n">
-        <v>1234.796353800385</v>
+        <v>1127.21300669687</v>
       </c>
       <c r="V18" t="n">
-        <v>1226.015357140542</v>
+        <v>892.9617632224711</v>
       </c>
       <c r="W18" t="n">
-        <v>973.5008654738755</v>
+        <v>865.917518370361</v>
       </c>
       <c r="X18" t="n">
-        <v>766.973966879453</v>
+        <v>865.917518370361</v>
       </c>
       <c r="Y18" t="n">
-        <v>561.2455311031034</v>
+        <v>660.1890825940114</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>231.7927716907637</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="C19" t="n">
-        <v>62.76595054813509</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="D19" t="n">
-        <v>62.76595054813509</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="E19" t="n">
-        <v>62.76595054813509</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="F19" t="n">
-        <v>62.76595054813509</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="G19" t="n">
-        <v>62.76595054813509</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="H19" t="n">
-        <v>62.76595054813509</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="I19" t="n">
         <v>34.10140231596885</v>
@@ -5674,19 +5674,19 @@
         <v>34.10140231596885</v>
       </c>
       <c r="K19" t="n">
-        <v>46.64072871593232</v>
+        <v>46.6407287159323</v>
       </c>
       <c r="L19" t="n">
         <v>118.4903645053428</v>
       </c>
       <c r="M19" t="n">
-        <v>204.8386310053437</v>
+        <v>204.8386310053436</v>
       </c>
       <c r="N19" t="n">
-        <v>294.2749906206804</v>
+        <v>294.2749906206803</v>
       </c>
       <c r="O19" t="n">
-        <v>361.5473478642936</v>
+        <v>361.5473478642935</v>
       </c>
       <c r="P19" t="n">
         <v>395.8879897507439</v>
@@ -5701,22 +5701,22 @@
         <v>395.8879897507439</v>
       </c>
       <c r="T19" t="n">
-        <v>391.7387293443692</v>
+        <v>391.7387293443691</v>
       </c>
       <c r="U19" t="n">
-        <v>328.2803018396835</v>
+        <v>328.2803018396834</v>
       </c>
       <c r="V19" t="n">
         <v>298.2592849502612</v>
       </c>
       <c r="W19" t="n">
-        <v>234.7471308684386</v>
+        <v>37.05576149364373</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7927716907637</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.7927716907637</v>
+        <v>34.10140231596885</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>965.2006267177222</v>
+        <v>965.200626717722</v>
       </c>
       <c r="C20" t="n">
-        <v>819.9788576949632</v>
+        <v>819.9788576949627</v>
       </c>
       <c r="D20" t="n">
-        <v>685.2423037472993</v>
+        <v>685.2423037472988</v>
       </c>
       <c r="E20" t="n">
-        <v>523.7246356575251</v>
+        <v>523.7246356575247</v>
       </c>
       <c r="F20" t="n">
-        <v>337.7869395624446</v>
+        <v>337.7869395624441</v>
       </c>
       <c r="G20" t="n">
         <v>144.7438211337167</v>
@@ -5750,49 +5750,49 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J20" t="n">
-        <v>77.69072816999119</v>
+        <v>77.69072816999099</v>
       </c>
       <c r="K20" t="n">
-        <v>265.2964209897041</v>
+        <v>265.2964209897036</v>
       </c>
       <c r="L20" t="n">
-        <v>550.0069502858452</v>
+        <v>550.0069502858447</v>
       </c>
       <c r="M20" t="n">
-        <v>882.0145658318189</v>
+        <v>882.0145658318183</v>
       </c>
       <c r="N20" t="n">
         <v>1203.877236708332</v>
       </c>
       <c r="O20" t="n">
-        <v>1461.674678503433</v>
+        <v>1461.674678503432</v>
       </c>
       <c r="P20" t="n">
         <v>1644.760037552937</v>
       </c>
       <c r="Q20" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R20" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="S20" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="T20" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="U20" t="n">
         <v>1676.564967793297</v>
       </c>
       <c r="V20" t="n">
-        <v>1570.183475696217</v>
+        <v>1570.183475696218</v>
       </c>
       <c r="W20" t="n">
         <v>1441.582897257689</v>
       </c>
       <c r="X20" t="n">
-        <v>1292.445468182176</v>
+        <v>1292.445468182175</v>
       </c>
       <c r="Y20" t="n">
         <v>1127.322713227807</v>
@@ -5829,40 +5829,40 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J21" t="n">
-        <v>67.84495135972892</v>
+        <v>67.8449513597289</v>
       </c>
       <c r="K21" t="n">
-        <v>252.1236645012131</v>
+        <v>252.123664501213</v>
       </c>
       <c r="L21" t="n">
-        <v>560.7587426888302</v>
+        <v>560.7587426888301</v>
       </c>
       <c r="M21" t="n">
-        <v>580.2187993483344</v>
+        <v>696.9987190239558</v>
       </c>
       <c r="N21" t="n">
-        <v>1002.223653008449</v>
+        <v>1119.00357268407</v>
       </c>
       <c r="O21" t="n">
-        <v>1336.461443448914</v>
+        <v>1453.241363124535</v>
       </c>
       <c r="P21" t="n">
-        <v>1588.290196122821</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="Q21" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.086680441445</v>
+        <v>1627.086680441444</v>
       </c>
       <c r="S21" t="n">
-        <v>1530.572925012536</v>
+        <v>1627.086680441444</v>
       </c>
       <c r="T21" t="n">
-        <v>1331.333530172988</v>
+        <v>1627.086680441444</v>
       </c>
       <c r="U21" t="n">
-        <v>1329.896056958636</v>
+        <v>1400.178960412536</v>
       </c>
       <c r="V21" t="n">
         <v>1321.115060298793</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231.7927716907637</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="C22" t="n">
-        <v>203.4482750313018</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="D22" t="n">
-        <v>203.4482750313018</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="E22" t="n">
-        <v>203.4482750313018</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="F22" t="n">
-        <v>203.4482750313018</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="G22" t="n">
-        <v>34.10140231596885</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="H22" t="n">
-        <v>34.10140231596885</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="I22" t="n">
-        <v>34.10140231596885</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="J22" t="n">
-        <v>34.10140231596885</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="K22" t="n">
-        <v>46.64072871593232</v>
+        <v>1355.822854763631</v>
       </c>
       <c r="L22" t="n">
-        <v>118.4903645053428</v>
+        <v>1427.672490553041</v>
       </c>
       <c r="M22" t="n">
-        <v>204.8386310053437</v>
+        <v>1514.020757053042</v>
       </c>
       <c r="N22" t="n">
-        <v>294.2749906206804</v>
+        <v>1603.457116668379</v>
       </c>
       <c r="O22" t="n">
-        <v>361.5473478642936</v>
+        <v>1670.729473911992</v>
       </c>
       <c r="P22" t="n">
-        <v>395.8879897507439</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.8879897507439</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R22" t="n">
-        <v>395.8879897507439</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="S22" t="n">
-        <v>395.8879897507439</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="T22" t="n">
-        <v>391.7387293443692</v>
+        <v>1700.920855392068</v>
       </c>
       <c r="U22" t="n">
-        <v>328.2803018396835</v>
+        <v>1637.462427887382</v>
       </c>
       <c r="V22" t="n">
-        <v>298.2592849502612</v>
+        <v>1607.44141099796</v>
       </c>
       <c r="W22" t="n">
-        <v>234.7471308684386</v>
+        <v>1346.237887541342</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7927716907637</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.7927716907637</v>
+        <v>1343.283528363667</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>965.2006267177226</v>
+        <v>965.2006267177227</v>
       </c>
       <c r="C23" t="n">
-        <v>819.9788576949635</v>
+        <v>819.9788576949636</v>
       </c>
       <c r="D23" t="n">
-        <v>685.2423037472996</v>
+        <v>685.2423037472997</v>
       </c>
       <c r="E23" t="n">
-        <v>523.7246356575255</v>
+        <v>523.7246356575256</v>
       </c>
       <c r="F23" t="n">
-        <v>337.7869395624449</v>
+        <v>337.786939562445</v>
       </c>
       <c r="G23" t="n">
         <v>144.7438211337167</v>
@@ -5987,16 +5987,16 @@
         <v>34.10140231596887</v>
       </c>
       <c r="J23" t="n">
-        <v>77.69072816999105</v>
+        <v>77.69072816999176</v>
       </c>
       <c r="K23" t="n">
-        <v>265.2964209897037</v>
+        <v>265.2964209897044</v>
       </c>
       <c r="L23" t="n">
-        <v>550.0069502858448</v>
+        <v>550.0069502858455</v>
       </c>
       <c r="M23" t="n">
-        <v>882.0145658318186</v>
+        <v>882.0145658318193</v>
       </c>
       <c r="N23" t="n">
         <v>1203.877236708332</v>
@@ -6032,7 +6032,7 @@
         <v>1292.445468182176</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.322713227807</v>
+        <v>1127.322713227808</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.2023548697655</v>
+        <v>745.3412191467853</v>
       </c>
       <c r="C24" t="n">
-        <v>662.8215992516843</v>
+        <v>572.5881040686024</v>
       </c>
       <c r="D24" t="n">
-        <v>515.2332926106283</v>
+        <v>424.9997974275462</v>
       </c>
       <c r="E24" t="n">
-        <v>357.623763613483</v>
+        <v>424.9997974275462</v>
       </c>
       <c r="F24" t="n">
-        <v>357.623763613483</v>
+        <v>280.0440074441631</v>
       </c>
       <c r="G24" t="n">
-        <v>220.5111476755053</v>
+        <v>142.9313915061854</v>
       </c>
       <c r="H24" t="n">
-        <v>111.6811584852888</v>
+        <v>34.10140231596887</v>
       </c>
       <c r="I24" t="n">
         <v>34.10140231596887</v>
@@ -6069,49 +6069,49 @@
         <v>34.10140231596887</v>
       </c>
       <c r="K24" t="n">
-        <v>34.10140231596887</v>
+        <v>218.3801154574529</v>
       </c>
       <c r="L24" t="n">
-        <v>342.7364805035861</v>
+        <v>284.0359460804617</v>
       </c>
       <c r="M24" t="n">
-        <v>580.2187993483346</v>
+        <v>696.9987190239565</v>
       </c>
       <c r="N24" t="n">
-        <v>1002.223653008449</v>
+        <v>1119.003572684071</v>
       </c>
       <c r="O24" t="n">
-        <v>1336.461443448914</v>
+        <v>1453.241363124536</v>
       </c>
       <c r="P24" t="n">
-        <v>1588.290196122821</v>
+        <v>1705.070115798443</v>
       </c>
       <c r="Q24" t="n">
         <v>1705.070115798443</v>
       </c>
       <c r="R24" t="n">
-        <v>1705.070115798443</v>
+        <v>1627.086680441445</v>
       </c>
       <c r="S24" t="n">
-        <v>1539.687509186292</v>
+        <v>1461.704073829294</v>
       </c>
       <c r="T24" t="n">
-        <v>1340.448114346744</v>
+        <v>1440.071326096625</v>
       </c>
       <c r="U24" t="n">
-        <v>1113.540394317835</v>
+        <v>1213.163606067717</v>
       </c>
       <c r="V24" t="n">
-        <v>1104.759397657993</v>
+        <v>1204.382609407874</v>
       </c>
       <c r="W24" t="n">
-        <v>852.2449059913259</v>
+        <v>951.8681177412078</v>
       </c>
       <c r="X24" t="n">
-        <v>852.2449059913259</v>
+        <v>745.3412191467853</v>
       </c>
       <c r="Y24" t="n">
-        <v>852.2449059913259</v>
+        <v>745.3412191467853</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596887</v>
       </c>
       <c r="C25" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596887</v>
       </c>
       <c r="D25" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596887</v>
       </c>
       <c r="E25" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596887</v>
       </c>
       <c r="F25" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596887</v>
       </c>
       <c r="G25" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596887</v>
       </c>
       <c r="H25" t="n">
         <v>34.10140231596887</v>
@@ -6148,49 +6148,49 @@
         <v>34.10140231596887</v>
       </c>
       <c r="K25" t="n">
-        <v>46.64072871593233</v>
+        <v>46.64072871593232</v>
       </c>
       <c r="L25" t="n">
         <v>118.4903645053428</v>
       </c>
       <c r="M25" t="n">
-        <v>204.8386310053437</v>
+        <v>204.8386310053436</v>
       </c>
       <c r="N25" t="n">
-        <v>294.2749906206804</v>
+        <v>294.2749906206803</v>
       </c>
       <c r="O25" t="n">
-        <v>361.5473478642936</v>
+        <v>361.5473478642935</v>
       </c>
       <c r="P25" t="n">
         <v>395.8879897507439</v>
       </c>
       <c r="Q25" t="n">
-        <v>395.8879897507439</v>
+        <v>335.2986648082306</v>
       </c>
       <c r="R25" t="n">
-        <v>395.8879897507439</v>
+        <v>335.2986648082306</v>
       </c>
       <c r="S25" t="n">
-        <v>395.8879897507439</v>
+        <v>335.2986648082306</v>
       </c>
       <c r="T25" t="n">
-        <v>391.7387293443692</v>
+        <v>331.1494044018559</v>
       </c>
       <c r="U25" t="n">
-        <v>328.2803018396835</v>
+        <v>267.6909768971702</v>
       </c>
       <c r="V25" t="n">
-        <v>298.2592849502612</v>
+        <v>237.6699600077479</v>
       </c>
       <c r="W25" t="n">
-        <v>234.7471308684386</v>
+        <v>174.1578059259253</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7927716907637</v>
+        <v>34.10140231596887</v>
       </c>
       <c r="Y25" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596887</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1079.9421984426</v>
       </c>
       <c r="E26" t="n">
-        <v>836.4769088779638</v>
+        <v>836.4769088779635</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5915913080206</v>
+        <v>568.5915913080205</v>
       </c>
       <c r="G26" t="n">
-        <v>293.6008514044297</v>
+        <v>293.60085140443</v>
       </c>
       <c r="H26" t="n">
         <v>101.0108111118196</v>
@@ -6227,25 +6227,25 @@
         <v>241.9962439229414</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2684618380886</v>
+        <v>570.2684618380882</v>
       </c>
       <c r="L26" t="n">
-        <v>995.6455162296638</v>
+        <v>995.6455162296635</v>
       </c>
       <c r="M26" t="n">
-        <v>1468.319656871072</v>
+        <v>1468.319656871071</v>
       </c>
       <c r="N26" t="n">
         <v>1930.848852843019</v>
       </c>
       <c r="O26" t="n">
-        <v>2329.312819733555</v>
+        <v>2329.312819733554</v>
       </c>
       <c r="P26" t="n">
-        <v>2653.064703878493</v>
+        <v>2653.064703878492</v>
       </c>
       <c r="Q26" t="n">
-        <v>2854.041307219433</v>
+        <v>2854.041307219432</v>
       </c>
       <c r="R26" t="n">
         <v>2887.01964867425</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>834.4894683655718</v>
+        <v>834.4894683655721</v>
       </c>
       <c r="C27" t="n">
-        <v>687.8937545528895</v>
+        <v>661.7363532873892</v>
       </c>
       <c r="D27" t="n">
         <v>540.3054479118333</v>
@@ -6303,16 +6303,16 @@
         <v>57.74039297348499</v>
       </c>
       <c r="J27" t="n">
-        <v>91.48394201724506</v>
+        <v>91.48394201724504</v>
       </c>
       <c r="K27" t="n">
-        <v>275.7626551587292</v>
+        <v>275.7626551587291</v>
       </c>
       <c r="L27" t="n">
-        <v>584.3977333463464</v>
+        <v>584.3977333463463</v>
       </c>
       <c r="M27" t="n">
-        <v>997.3605062898413</v>
+        <v>997.3605062898412</v>
       </c>
       <c r="N27" t="n">
         <v>1436.6519070275</v>
@@ -6330,25 +6330,25 @@
         <v>2061.514934460496</v>
       </c>
       <c r="S27" t="n">
-        <v>2039.654953188039</v>
+        <v>1896.132327848345</v>
       </c>
       <c r="T27" t="n">
-        <v>1840.41555834849</v>
+        <v>1840.415558348491</v>
       </c>
       <c r="U27" t="n">
-        <v>1613.507838319582</v>
+        <v>1757.030463659276</v>
       </c>
       <c r="V27" t="n">
-        <v>1379.256594845183</v>
+        <v>1666.301845524571</v>
       </c>
       <c r="W27" t="n">
-        <v>1270.26472851821</v>
+        <v>1413.787353857904</v>
       </c>
       <c r="X27" t="n">
         <v>1207.260455263482</v>
       </c>
       <c r="Y27" t="n">
-        <v>1001.532019487132</v>
+        <v>1001.532019487133</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.34379704144</v>
+        <v>147.3437970414402</v>
       </c>
       <c r="C28" t="n">
-        <v>121.8396012385055</v>
+        <v>121.8396012385057</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8515533312104</v>
+        <v>114.8515533312106</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9149623343397</v>
+        <v>109.9149623343398</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8022125126152</v>
+        <v>105.8022125126153</v>
       </c>
       <c r="G28" t="n">
-        <v>79.97796513697648</v>
+        <v>79.97796513697654</v>
       </c>
       <c r="H28" t="n">
-        <v>62.35496102052042</v>
+        <v>62.35496102052045</v>
       </c>
       <c r="I28" t="n">
         <v>57.74039297348499</v>
@@ -6385,49 +6385,49 @@
         <v>57.74039297348499</v>
       </c>
       <c r="K28" t="n">
-        <v>70.27971937344846</v>
+        <v>210.9462444688827</v>
       </c>
       <c r="L28" t="n">
         <v>282.7958802582932</v>
       </c>
       <c r="M28" t="n">
-        <v>369.144146758294</v>
+        <v>509.8106718537282</v>
       </c>
       <c r="N28" t="n">
-        <v>599.247031469065</v>
+        <v>599.2470314690648</v>
       </c>
       <c r="O28" t="n">
-        <v>678.5188766674644</v>
+        <v>807.1859138081122</v>
       </c>
       <c r="P28" t="n">
-        <v>853.5260436493489</v>
+        <v>853.5260436493493</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.808971368626</v>
+        <v>934.8089713686262</v>
       </c>
       <c r="R28" t="n">
-        <v>913.9160271867628</v>
+        <v>913.916027186763</v>
       </c>
       <c r="S28" t="n">
-        <v>836.9928469058922</v>
+        <v>836.9928469058924</v>
       </c>
       <c r="T28" t="n">
-        <v>750.8959650246549</v>
+        <v>750.8959650246551</v>
       </c>
       <c r="U28" t="n">
-        <v>605.4899160451066</v>
+        <v>605.4899160451068</v>
       </c>
       <c r="V28" t="n">
-        <v>493.5212776808218</v>
+        <v>493.521277680822</v>
       </c>
       <c r="W28" t="n">
-        <v>348.0615021241366</v>
+        <v>348.0615021241368</v>
       </c>
       <c r="X28" t="n">
-        <v>263.1595214715992</v>
+        <v>263.1595214715994</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.7238903792042</v>
+        <v>185.7238903792044</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1523.795764362748</v>
+        <v>1523.795764362749</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.626373865126</v>
+        <v>1296.626373865127</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.9421984426</v>
+        <v>1079.942198442601</v>
       </c>
       <c r="E29" t="n">
-        <v>836.4769088779633</v>
+        <v>836.4769088779642</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5915913080203</v>
+        <v>568.5915913080212</v>
       </c>
       <c r="G29" t="n">
-        <v>293.6008514044297</v>
+        <v>293.6008514044306</v>
       </c>
       <c r="H29" t="n">
         <v>101.0108111118196</v>
@@ -6461,13 +6461,13 @@
         <v>57.74039297348498</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9962439229408</v>
+        <v>241.9962439229412</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2684618380877</v>
+        <v>570.2684618380881</v>
       </c>
       <c r="L29" t="n">
-        <v>995.6455162296629</v>
+        <v>995.6455162296634</v>
       </c>
       <c r="M29" t="n">
         <v>1468.319656871071</v>
@@ -6488,25 +6488,25 @@
         <v>2887.019648674249</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.717463448005</v>
+        <v>2834.717463448006</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.350982292644</v>
+        <v>2755.350982292645</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.898212812635</v>
+        <v>2644.898212812636</v>
       </c>
       <c r="V29" t="n">
         <v>2456.569099240694</v>
       </c>
       <c r="W29" t="n">
-        <v>2246.020899327302</v>
+        <v>2246.020899327304</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.935848776926</v>
+        <v>2014.935848776928</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.865472347695</v>
+        <v>1767.865472347697</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>57.74039297348498</v>
       </c>
       <c r="J30" t="n">
-        <v>91.48394201724506</v>
+        <v>91.48394201724503</v>
       </c>
       <c r="K30" t="n">
-        <v>275.7626551587292</v>
+        <v>275.7626551587291</v>
       </c>
       <c r="L30" t="n">
-        <v>584.3977333463464</v>
+        <v>584.3977333463463</v>
       </c>
       <c r="M30" t="n">
-        <v>997.3605062898413</v>
+        <v>997.3605062898412</v>
       </c>
       <c r="N30" t="n">
         <v>1436.6519070275</v>
@@ -6564,19 +6564,19 @@
         <v>2139.498369817494</v>
       </c>
       <c r="R30" t="n">
-        <v>2061.514934460496</v>
+        <v>2139.498369817494</v>
       </c>
       <c r="S30" t="n">
-        <v>2039.654953188039</v>
+        <v>1974.115763205343</v>
       </c>
       <c r="T30" t="n">
-        <v>1840.41555834849</v>
+        <v>1774.876368365794</v>
       </c>
       <c r="U30" t="n">
-        <v>1712.018118157173</v>
+        <v>1547.968648336886</v>
       </c>
       <c r="V30" t="n">
-        <v>1477.766874682774</v>
+        <v>1457.240030202181</v>
       </c>
       <c r="W30" t="n">
         <v>1225.252383016107</v>
@@ -6585,7 +6585,7 @@
         <v>1018.725484421685</v>
       </c>
       <c r="Y30" t="n">
-        <v>812.9970486453353</v>
+        <v>956.5196739850295</v>
       </c>
     </row>
     <row r="31">
@@ -6622,19 +6622,19 @@
         <v>126.987754230821</v>
       </c>
       <c r="K31" t="n">
-        <v>163.562135047512</v>
+        <v>139.5270806307844</v>
       </c>
       <c r="L31" t="n">
-        <v>376.0782959323567</v>
+        <v>352.0432415156291</v>
       </c>
       <c r="M31" t="n">
-        <v>603.0930875277918</v>
+        <v>579.0580331110641</v>
       </c>
       <c r="N31" t="n">
-        <v>833.1959722385627</v>
+        <v>692.5294471431286</v>
       </c>
       <c r="O31" t="n">
-        <v>900.4683294821758</v>
+        <v>759.8018043867417</v>
       </c>
       <c r="P31" t="n">
         <v>934.8089713686262</v>
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.795764362748</v>
+        <v>1523.795764362749</v>
       </c>
       <c r="C32" t="n">
         <v>1296.626373865127</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.9421984426</v>
+        <v>1079.942198442601</v>
       </c>
       <c r="E32" t="n">
-        <v>836.4769088779638</v>
+        <v>836.4769088779642</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5915913080207</v>
+        <v>568.5915913080212</v>
       </c>
       <c r="G32" t="n">
-        <v>293.6008514044298</v>
+        <v>293.6008514044306</v>
       </c>
       <c r="H32" t="n">
-        <v>101.0108111118196</v>
+        <v>101.0108111118197</v>
       </c>
       <c r="I32" t="n">
-        <v>57.74039297348498</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9962439229414</v>
+        <v>241.9962439229415</v>
       </c>
       <c r="K32" t="n">
         <v>570.2684618380883</v>
       </c>
       <c r="L32" t="n">
-        <v>995.6455162296629</v>
+        <v>995.6455162296637</v>
       </c>
       <c r="M32" t="n">
-        <v>1468.319656871071</v>
+        <v>1468.319656871072</v>
       </c>
       <c r="N32" t="n">
-        <v>1930.848852843018</v>
+        <v>1930.848852843019</v>
       </c>
       <c r="O32" t="n">
         <v>2329.312819733554</v>
       </c>
       <c r="P32" t="n">
-        <v>2653.064703878492</v>
+        <v>2653.064703878493</v>
       </c>
       <c r="Q32" t="n">
         <v>2854.041307219432</v>
@@ -6737,13 +6737,13 @@
         <v>2456.569099240694</v>
       </c>
       <c r="W32" t="n">
-        <v>2246.020899327302</v>
+        <v>2246.020899327303</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.935848776926</v>
+        <v>2014.935848776927</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.865472347695</v>
+        <v>1767.865472347696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>717.1242442913782</v>
+        <v>817.7597496112301</v>
       </c>
       <c r="C33" t="n">
-        <v>687.8937545528895</v>
+        <v>645.0066345330472</v>
       </c>
       <c r="D33" t="n">
-        <v>540.3054479118333</v>
+        <v>497.4183278919911</v>
       </c>
       <c r="E33" t="n">
-        <v>526.2185442543822</v>
+        <v>339.8087988948458</v>
       </c>
       <c r="F33" t="n">
-        <v>381.2627542709991</v>
+        <v>194.8530089114627</v>
       </c>
       <c r="G33" t="n">
-        <v>244.1501383330214</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3201491428049</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="I33" t="n">
-        <v>57.74039297348498</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J33" t="n">
-        <v>91.48394201724506</v>
+        <v>91.48394201724503</v>
       </c>
       <c r="K33" t="n">
-        <v>275.7626551587292</v>
+        <v>275.7626551587291</v>
       </c>
       <c r="L33" t="n">
-        <v>584.3977333463464</v>
+        <v>584.3977333463463</v>
       </c>
       <c r="M33" t="n">
-        <v>997.3605062898413</v>
+        <v>997.3605062898412</v>
       </c>
       <c r="N33" t="n">
         <v>1436.6519070275</v>
@@ -6807,22 +6807,22 @@
         <v>1974.115763205343</v>
       </c>
       <c r="T33" t="n">
-        <v>1774.876368365794</v>
+        <v>1918.398993705489</v>
       </c>
       <c r="U33" t="n">
-        <v>1547.968648336886</v>
+        <v>1691.49127367658</v>
       </c>
       <c r="V33" t="n">
-        <v>1313.717404862487</v>
+        <v>1506.049501430535</v>
       </c>
       <c r="W33" t="n">
-        <v>1204.725538535514</v>
+        <v>1253.535009763868</v>
       </c>
       <c r="X33" t="n">
-        <v>1089.895231189288</v>
+        <v>1047.008111169446</v>
       </c>
       <c r="Y33" t="n">
-        <v>884.1667954129387</v>
+        <v>984.8023007327905</v>
       </c>
     </row>
     <row r="34">
@@ -6847,31 +6847,31 @@
         <v>105.8022125126152</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97796513697647</v>
+        <v>79.97796513697648</v>
       </c>
       <c r="H34" t="n">
-        <v>62.35496102052041</v>
+        <v>62.35496102052042</v>
       </c>
       <c r="I34" t="n">
-        <v>57.74039297348498</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="J34" t="n">
-        <v>69.73988092827128</v>
+        <v>126.987754230821</v>
       </c>
       <c r="K34" t="n">
-        <v>222.945732423669</v>
+        <v>280.1936057262187</v>
       </c>
       <c r="L34" t="n">
-        <v>435.4618933085137</v>
+        <v>492.7097666110634</v>
       </c>
       <c r="M34" t="n">
-        <v>662.4766849039488</v>
+        <v>579.0580331110642</v>
       </c>
       <c r="N34" t="n">
-        <v>751.9130445192854</v>
+        <v>668.4943927264009</v>
       </c>
       <c r="O34" t="n">
-        <v>819.1854017628986</v>
+        <v>735.766749970014</v>
       </c>
       <c r="P34" t="n">
         <v>853.5260436493489</v>
@@ -6898,7 +6898,7 @@
         <v>348.0615021241366</v>
       </c>
       <c r="X34" t="n">
-        <v>263.1595214715991</v>
+        <v>263.1595214715992</v>
       </c>
       <c r="Y34" t="n">
         <v>185.7238903792042</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.2006267177225</v>
+        <v>965.2006267177223</v>
       </c>
       <c r="C35" t="n">
         <v>819.9788576949634</v>
@@ -6935,7 +6935,7 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J35" t="n">
-        <v>77.69072816999103</v>
+        <v>77.69072816999119</v>
       </c>
       <c r="K35" t="n">
         <v>265.2964209897037</v>
@@ -6944,7 +6944,7 @@
         <v>550.0069502858448</v>
       </c>
       <c r="M35" t="n">
-        <v>882.0145658318186</v>
+        <v>882.0145658318185</v>
       </c>
       <c r="N35" t="n">
         <v>1203.877236708332</v>
@@ -6956,22 +6956,22 @@
         <v>1644.760037552937</v>
       </c>
       <c r="Q35" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R35" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="S35" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="T35" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="U35" t="n">
-        <v>1676.564967793297</v>
+        <v>1676.564967793296</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.183475696218</v>
+        <v>1570.183475696217</v>
       </c>
       <c r="W35" t="n">
         <v>1441.582897257689</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>871.7005151230339</v>
+        <v>394.2029799815425</v>
       </c>
       <c r="C36" t="n">
-        <v>698.9474000448511</v>
+        <v>339.2992379541703</v>
       </c>
       <c r="D36" t="n">
-        <v>551.3590934037949</v>
+        <v>191.7109313131141</v>
       </c>
       <c r="E36" t="n">
-        <v>393.7495644066496</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="F36" t="n">
-        <v>248.7937744232665</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="G36" t="n">
-        <v>111.6811584852888</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="H36" t="n">
-        <v>111.6811584852888</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="I36" t="n">
         <v>34.10140231596885</v>
       </c>
       <c r="J36" t="n">
-        <v>67.84495135972892</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="K36" t="n">
-        <v>67.84495135972892</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="L36" t="n">
-        <v>376.4800295473461</v>
+        <v>284.035946080461</v>
       </c>
       <c r="M36" t="n">
-        <v>580.2187993483344</v>
+        <v>696.9987190239558</v>
       </c>
       <c r="N36" t="n">
-        <v>1002.223653008449</v>
+        <v>1119.00357268407</v>
       </c>
       <c r="O36" t="n">
-        <v>1336.461443448914</v>
+        <v>1453.241363124535</v>
       </c>
       <c r="P36" t="n">
-        <v>1588.290196122821</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="Q36" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.086680441445</v>
+        <v>1627.086680441444</v>
       </c>
       <c r="S36" t="n">
         <v>1461.704073829293</v>
       </c>
       <c r="T36" t="n">
-        <v>1262.464678989745</v>
+        <v>1461.704073829293</v>
       </c>
       <c r="U36" t="n">
-        <v>1261.027205775393</v>
+        <v>1460.266600614941</v>
       </c>
       <c r="V36" t="n">
-        <v>1252.246209115551</v>
+        <v>1226.015357140542</v>
       </c>
       <c r="W36" t="n">
-        <v>1225.20196426344</v>
+        <v>973.500865473875</v>
       </c>
       <c r="X36" t="n">
-        <v>1018.675065669018</v>
+        <v>766.9739668794525</v>
       </c>
       <c r="Y36" t="n">
-        <v>871.7005151230339</v>
+        <v>561.245531103103</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.6120755629581</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="C37" t="n">
-        <v>184.6120755629581</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="D37" t="n">
         <v>34.10140231596885</v>
@@ -7096,19 +7096,19 @@
         <v>34.10140231596885</v>
       </c>
       <c r="K37" t="n">
-        <v>46.64072871593232</v>
+        <v>46.6407287159323</v>
       </c>
       <c r="L37" t="n">
         <v>118.4903645053428</v>
       </c>
       <c r="M37" t="n">
-        <v>204.8386310053437</v>
+        <v>204.8386310053436</v>
       </c>
       <c r="N37" t="n">
-        <v>294.2749906206804</v>
+        <v>294.2749906206803</v>
       </c>
       <c r="O37" t="n">
-        <v>361.5473478642936</v>
+        <v>361.5473478642935</v>
       </c>
       <c r="P37" t="n">
         <v>395.8879897507439</v>
@@ -7123,22 +7123,22 @@
         <v>395.8879897507439</v>
       </c>
       <c r="T37" t="n">
-        <v>344.5580332165634</v>
+        <v>391.7387293443692</v>
       </c>
       <c r="U37" t="n">
-        <v>281.0996057118778</v>
+        <v>328.2803018396836</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0785888224555</v>
+        <v>298.2592849502614</v>
       </c>
       <c r="W37" t="n">
-        <v>187.566434740633</v>
+        <v>37.05576149364364</v>
       </c>
       <c r="X37" t="n">
-        <v>184.6120755629581</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.6120755629581</v>
+        <v>34.10140231596885</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.2006267177228</v>
+        <v>965.2006267177219</v>
       </c>
       <c r="C38" t="n">
-        <v>819.9788576949638</v>
+        <v>819.9788576949629</v>
       </c>
       <c r="D38" t="n">
-        <v>685.2423037473</v>
+        <v>685.242303747299</v>
       </c>
       <c r="E38" t="n">
-        <v>523.7246356575259</v>
+        <v>523.724635657525</v>
       </c>
       <c r="F38" t="n">
-        <v>337.7869395624455</v>
+        <v>337.7869395624446</v>
       </c>
       <c r="G38" t="n">
         <v>144.7438211337166</v>
@@ -7172,49 +7172,49 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J38" t="n">
-        <v>77.69072816999119</v>
+        <v>77.69072816999096</v>
       </c>
       <c r="K38" t="n">
-        <v>265.2964209897038</v>
+        <v>265.2964209897037</v>
       </c>
       <c r="L38" t="n">
-        <v>550.0069502858451</v>
+        <v>550.0069502858447</v>
       </c>
       <c r="M38" t="n">
-        <v>882.0145658318186</v>
+        <v>882.0145658318183</v>
       </c>
       <c r="N38" t="n">
         <v>1203.877236708332</v>
       </c>
       <c r="O38" t="n">
-        <v>1461.674678503433</v>
+        <v>1461.674678503432</v>
       </c>
       <c r="P38" t="n">
         <v>1644.760037552937</v>
       </c>
       <c r="Q38" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R38" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="S38" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="T38" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="U38" t="n">
-        <v>1676.564967793297</v>
+        <v>1676.564967793296</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.183475696218</v>
+        <v>1570.183475696217</v>
       </c>
       <c r="W38" t="n">
-        <v>1441.582897257689</v>
+        <v>1441.582897257688</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.445468182176</v>
+        <v>1292.445468182175</v>
       </c>
       <c r="Y38" t="n">
         <v>1127.322713227807</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>419.3862788910102</v>
+        <v>657.0081430157362</v>
       </c>
       <c r="C39" t="n">
-        <v>246.6331638128274</v>
+        <v>484.2550279375534</v>
       </c>
       <c r="D39" t="n">
-        <v>99.04485717177124</v>
+        <v>336.6667212964973</v>
       </c>
       <c r="E39" t="n">
-        <v>99.04485717177124</v>
+        <v>179.057192299352</v>
       </c>
       <c r="F39" t="n">
-        <v>99.04485717177124</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="G39" t="n">
-        <v>99.04485717177124</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="H39" t="n">
-        <v>99.04485717177124</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="I39" t="n">
         <v>34.10140231596885</v>
       </c>
       <c r="J39" t="n">
-        <v>67.84495135972892</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="K39" t="n">
-        <v>252.1236645012131</v>
+        <v>218.3801154574529</v>
       </c>
       <c r="L39" t="n">
-        <v>560.7587426888302</v>
+        <v>527.0151936450701</v>
       </c>
       <c r="M39" t="n">
-        <v>973.7215156323251</v>
+        <v>580.218799348334</v>
       </c>
       <c r="N39" t="n">
         <v>1002.223653008449</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.461443448914</v>
+        <v>1336.461443448913</v>
       </c>
       <c r="P39" t="n">
         <v>1588.290196122821</v>
       </c>
       <c r="Q39" t="n">
-        <v>1705.070115798443</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R39" t="n">
-        <v>1705.070115798443</v>
+        <v>1627.086680441444</v>
       </c>
       <c r="S39" t="n">
-        <v>1705.070115798443</v>
+        <v>1461.704073829293</v>
       </c>
       <c r="T39" t="n">
-        <v>1505.830720958895</v>
+        <v>1461.704073829293</v>
       </c>
       <c r="U39" t="n">
-        <v>1278.923000929986</v>
+        <v>1234.796353800384</v>
       </c>
       <c r="V39" t="n">
-        <v>1044.671757455587</v>
+        <v>1226.015357140542</v>
       </c>
       <c r="W39" t="n">
-        <v>792.1572657889202</v>
+        <v>973.5008654738753</v>
       </c>
       <c r="X39" t="n">
-        <v>792.1572657889202</v>
+        <v>973.5008654738753</v>
       </c>
       <c r="Y39" t="n">
-        <v>586.4288300125706</v>
+        <v>824.0506941372967</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>203.1282234585975</v>
+        <v>1504.429157819818</v>
       </c>
       <c r="C40" t="n">
-        <v>34.10140231596885</v>
+        <v>1504.429157819818</v>
       </c>
       <c r="D40" t="n">
-        <v>34.10140231596885</v>
+        <v>1504.429157819818</v>
       </c>
       <c r="E40" t="n">
-        <v>34.10140231596885</v>
+        <v>1504.429157819818</v>
       </c>
       <c r="F40" t="n">
-        <v>34.10140231596885</v>
+        <v>1504.429157819818</v>
       </c>
       <c r="G40" t="n">
-        <v>34.10140231596885</v>
+        <v>1504.429157819818</v>
       </c>
       <c r="H40" t="n">
-        <v>34.10140231596885</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="I40" t="n">
-        <v>34.10140231596885</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="J40" t="n">
-        <v>34.10140231596885</v>
+        <v>1343.283528363667</v>
       </c>
       <c r="K40" t="n">
-        <v>46.64072871593232</v>
+        <v>1355.822854763631</v>
       </c>
       <c r="L40" t="n">
-        <v>118.4903645053428</v>
+        <v>1427.672490553041</v>
       </c>
       <c r="M40" t="n">
-        <v>204.8386310053437</v>
+        <v>1514.020757053042</v>
       </c>
       <c r="N40" t="n">
-        <v>294.2749906206804</v>
+        <v>1603.457116668379</v>
       </c>
       <c r="O40" t="n">
-        <v>361.5473478642936</v>
+        <v>1670.729473911992</v>
       </c>
       <c r="P40" t="n">
-        <v>395.8879897507439</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="Q40" t="n">
-        <v>395.8879897507439</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="R40" t="n">
-        <v>395.8879897507439</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="S40" t="n">
-        <v>395.8879897507439</v>
+        <v>1705.070115798442</v>
       </c>
       <c r="T40" t="n">
-        <v>391.7387293443692</v>
+        <v>1700.920855392068</v>
       </c>
       <c r="U40" t="n">
-        <v>299.615753607517</v>
+        <v>1600.916687968737</v>
       </c>
       <c r="V40" t="n">
-        <v>269.5947367180949</v>
+        <v>1570.895671079315</v>
       </c>
       <c r="W40" t="n">
-        <v>206.0825826362723</v>
+        <v>1507.383516997493</v>
       </c>
       <c r="X40" t="n">
-        <v>203.1282234585975</v>
+        <v>1504.429157819818</v>
       </c>
       <c r="Y40" t="n">
-        <v>203.1282234585975</v>
+        <v>1504.429157819818</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.3195846313454</v>
+        <v>981.3195846313452</v>
       </c>
       <c r="C41" t="n">
-        <v>833.5166752890846</v>
+        <v>833.5166752890843</v>
       </c>
       <c r="D41" t="n">
-        <v>696.1989810219191</v>
+        <v>696.1989810219187</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1001726126433</v>
+        <v>532.100172612643</v>
       </c>
       <c r="F41" t="n">
-        <v>343.5813361980611</v>
+        <v>343.5813361980606</v>
       </c>
       <c r="G41" t="n">
         <v>147.957077449831</v>
@@ -7409,10 +7409,10 @@
         <v>34.73351831258152</v>
       </c>
       <c r="J41" t="n">
-        <v>78.32284416660369</v>
+        <v>78.32284416660366</v>
       </c>
       <c r="K41" t="n">
-        <v>265.9285369863164</v>
+        <v>265.9285369863163</v>
       </c>
       <c r="L41" t="n">
         <v>550.6390662824574</v>
@@ -7421,16 +7421,16 @@
         <v>882.6466818284312</v>
       </c>
       <c r="N41" t="n">
-        <v>1204.509352704945</v>
+        <v>1235.483036538965</v>
       </c>
       <c r="O41" t="n">
-        <v>1462.306794500045</v>
+        <v>1493.280478334066</v>
       </c>
       <c r="P41" t="n">
-        <v>1645.39215354955</v>
+        <v>1676.36583738357</v>
       </c>
       <c r="Q41" t="n">
-        <v>1705.702231795055</v>
+        <v>1736.675915629076</v>
       </c>
       <c r="R41" t="n">
         <v>1736.675915629076</v>
@@ -7442,7 +7442,7 @@
         <v>1736.675915629076</v>
       </c>
       <c r="U41" t="n">
-        <v>1705.589627304428</v>
+        <v>1705.589627304427</v>
       </c>
       <c r="V41" t="n">
         <v>1596.626994887847</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5144582191823</v>
+        <v>598.3850285023418</v>
       </c>
       <c r="C42" t="n">
-        <v>448.7613431409995</v>
+        <v>425.6319134241589</v>
       </c>
       <c r="D42" t="n">
-        <v>301.1730364999434</v>
+        <v>425.6319134241589</v>
       </c>
       <c r="E42" t="n">
-        <v>143.563507502798</v>
+        <v>425.6319134241589</v>
       </c>
       <c r="F42" t="n">
-        <v>143.563507502798</v>
+        <v>280.6761234407758</v>
       </c>
       <c r="G42" t="n">
         <v>143.563507502798</v>
@@ -7488,25 +7488,25 @@
         <v>34.73351831258152</v>
       </c>
       <c r="J42" t="n">
-        <v>68.47706735634159</v>
+        <v>68.47706735634156</v>
       </c>
       <c r="K42" t="n">
-        <v>252.7557804978257</v>
+        <v>252.7557804978256</v>
       </c>
       <c r="L42" t="n">
-        <v>252.7557804978257</v>
+        <v>561.3908586854428</v>
       </c>
       <c r="M42" t="n">
-        <v>665.7185534413206</v>
+        <v>972.6108360704147</v>
       </c>
       <c r="N42" t="n">
-        <v>1095.545842559517</v>
+        <v>1402.438125188611</v>
       </c>
       <c r="O42" t="n">
-        <v>1429.783632999982</v>
+        <v>1736.675915629076</v>
       </c>
       <c r="P42" t="n">
-        <v>1619.895995953454</v>
+        <v>1736.675915629076</v>
       </c>
       <c r="Q42" t="n">
         <v>1736.675915629076</v>
@@ -7515,25 +7515,25 @@
         <v>1736.675915629076</v>
       </c>
       <c r="S42" t="n">
-        <v>1736.675915629076</v>
+        <v>1661.17975891472</v>
       </c>
       <c r="T42" t="n">
-        <v>1537.436520789527</v>
+        <v>1461.940364075171</v>
       </c>
       <c r="U42" t="n">
-        <v>1533.417907255674</v>
+        <v>1457.921750541318</v>
       </c>
       <c r="V42" t="n">
-        <v>1299.166663781275</v>
+        <v>1223.670507066919</v>
       </c>
       <c r="W42" t="n">
-        <v>1046.652172114608</v>
+        <v>971.1560154002518</v>
       </c>
       <c r="X42" t="n">
-        <v>994.2854451170923</v>
+        <v>971.1560154002518</v>
       </c>
       <c r="Y42" t="n">
-        <v>788.5570093407428</v>
+        <v>765.4275796239023</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>219.519186089868</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="C43" t="n">
-        <v>219.519186089868</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="D43" t="n">
-        <v>69.00851284287876</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="E43" t="n">
-        <v>69.00851284287876</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="F43" t="n">
-        <v>69.00851284287876</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="G43" t="n">
         <v>34.73351831258152</v>
@@ -7570,7 +7570,7 @@
         <v>34.73351831258152</v>
       </c>
       <c r="K43" t="n">
-        <v>47.27284471254498</v>
+        <v>47.27284471254497</v>
       </c>
       <c r="L43" t="n">
         <v>119.1224805019555</v>
@@ -7579,40 +7579,40 @@
         <v>205.4707470019563</v>
       </c>
       <c r="N43" t="n">
-        <v>294.907106617293</v>
+        <v>294.9071066172929</v>
       </c>
       <c r="O43" t="n">
-        <v>362.1794638609062</v>
+        <v>362.1794638609061</v>
       </c>
       <c r="P43" t="n">
-        <v>396.5201057473566</v>
+        <v>396.5201057473565</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.5201057473566</v>
+        <v>396.5201057473565</v>
       </c>
       <c r="R43" t="n">
-        <v>396.5201057473566</v>
+        <v>396.5201057473565</v>
       </c>
       <c r="S43" t="n">
-        <v>396.5201057473566</v>
+        <v>396.5201057473565</v>
       </c>
       <c r="T43" t="n">
-        <v>389.7897050214801</v>
+        <v>205.0040372441937</v>
       </c>
       <c r="U43" t="n">
-        <v>323.7501371972928</v>
+        <v>138.9644694200063</v>
       </c>
       <c r="V43" t="n">
-        <v>291.1479799883689</v>
+        <v>106.3623122110824</v>
       </c>
       <c r="W43" t="n">
-        <v>225.0546855870446</v>
+        <v>40.26901780975806</v>
       </c>
       <c r="X43" t="n">
-        <v>219.519186089868</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.519186089868</v>
+        <v>34.73351831258152</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>981.3195846313454</v>
+        <v>981.3195846313449</v>
       </c>
       <c r="C44" t="n">
-        <v>833.5166752890844</v>
+        <v>833.5166752890841</v>
       </c>
       <c r="D44" t="n">
-        <v>696.1989810219188</v>
+        <v>696.1989810219186</v>
       </c>
       <c r="E44" t="n">
-        <v>532.1001726126431</v>
+        <v>532.1001726126428</v>
       </c>
       <c r="F44" t="n">
-        <v>343.5813361980609</v>
+        <v>343.5813361980607</v>
       </c>
       <c r="G44" t="n">
         <v>147.957077449831</v>
@@ -7646,16 +7646,16 @@
         <v>34.73351831258152</v>
       </c>
       <c r="J44" t="n">
-        <v>78.32284416660369</v>
+        <v>78.32284416660366</v>
       </c>
       <c r="K44" t="n">
-        <v>265.9285369863164</v>
+        <v>265.9285369863163</v>
       </c>
       <c r="L44" t="n">
         <v>550.6390662824574</v>
       </c>
       <c r="M44" t="n">
-        <v>913.6203656624514</v>
+        <v>913.6203656624516</v>
       </c>
       <c r="N44" t="n">
         <v>1235.483036538965</v>
@@ -7685,13 +7685,13 @@
         <v>1596.626994887847</v>
       </c>
       <c r="W44" t="n">
-        <v>1465.445276129817</v>
+        <v>1465.445276129816</v>
       </c>
       <c r="X44" t="n">
-        <v>1313.726706734802</v>
+        <v>1313.726706734801</v>
       </c>
       <c r="Y44" t="n">
-        <v>1146.022811460932</v>
+        <v>1146.022811460931</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>595.0992870416268</v>
+        <v>595.8977498596996</v>
       </c>
       <c r="C45" t="n">
-        <v>422.346171963444</v>
+        <v>595.8977498596996</v>
       </c>
       <c r="D45" t="n">
-        <v>422.346171963444</v>
+        <v>448.3094432186435</v>
       </c>
       <c r="E45" t="n">
-        <v>264.7366429662986</v>
+        <v>358.2558796100956</v>
       </c>
       <c r="F45" t="n">
-        <v>119.7808529829155</v>
+        <v>358.2558796100956</v>
       </c>
       <c r="G45" t="n">
-        <v>34.73351831258152</v>
+        <v>221.1432636721179</v>
       </c>
       <c r="H45" t="n">
-        <v>34.73351831258152</v>
+        <v>112.3132744819014</v>
       </c>
       <c r="I45" t="n">
         <v>34.73351831258152</v>
       </c>
       <c r="J45" t="n">
-        <v>68.47706735634159</v>
+        <v>68.47706735634156</v>
       </c>
       <c r="K45" t="n">
-        <v>252.7557804978257</v>
+        <v>252.7557804978256</v>
       </c>
       <c r="L45" t="n">
-        <v>561.3908586854429</v>
+        <v>561.3908586854428</v>
       </c>
       <c r="M45" t="n">
-        <v>974.3536316289378</v>
+        <v>974.3536316289376</v>
       </c>
       <c r="N45" t="n">
-        <v>1033.829452839082</v>
+        <v>1285.658205512989</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.067243279547</v>
+        <v>1619.895995953454</v>
       </c>
       <c r="P45" t="n">
         <v>1619.895995953454</v>
@@ -7758,19 +7758,19 @@
         <v>1459.453085432529</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.434471898676</v>
+        <v>1232.545365403621</v>
       </c>
       <c r="V45" t="n">
-        <v>1221.183228424276</v>
+        <v>998.2941219292213</v>
       </c>
       <c r="W45" t="n">
-        <v>968.6687367576097</v>
+        <v>968.6687367576096</v>
       </c>
       <c r="X45" t="n">
-        <v>762.1418381631872</v>
+        <v>968.6687367576096</v>
       </c>
       <c r="Y45" t="n">
-        <v>762.1418381631872</v>
+        <v>762.9403009812601</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.61646741240961</v>
+        <v>203.7603394552101</v>
       </c>
       <c r="C46" t="n">
-        <v>37.61646741240961</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="D46" t="n">
-        <v>37.61646741240961</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="E46" t="n">
-        <v>37.61646741240961</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="F46" t="n">
-        <v>37.61646741240961</v>
+        <v>34.73351831258152</v>
       </c>
       <c r="G46" t="n">
         <v>34.73351831258152</v>
@@ -7807,7 +7807,7 @@
         <v>34.73351831258152</v>
       </c>
       <c r="K46" t="n">
-        <v>47.27284471254498</v>
+        <v>47.27284471254497</v>
       </c>
       <c r="L46" t="n">
         <v>119.1224805019555</v>
@@ -7816,40 +7816,40 @@
         <v>205.4707470019563</v>
       </c>
       <c r="N46" t="n">
-        <v>294.907106617293</v>
+        <v>294.9071066172929</v>
       </c>
       <c r="O46" t="n">
-        <v>362.1794638609062</v>
+        <v>362.1794638609061</v>
       </c>
       <c r="P46" t="n">
-        <v>396.5201057473566</v>
+        <v>396.5201057473565</v>
       </c>
       <c r="Q46" t="n">
-        <v>396.5201057473566</v>
+        <v>396.5201057473565</v>
       </c>
       <c r="R46" t="n">
-        <v>396.5201057473566</v>
+        <v>396.5201057473565</v>
       </c>
       <c r="S46" t="n">
-        <v>396.5201057473566</v>
+        <v>396.5201057473565</v>
       </c>
       <c r="T46" t="n">
-        <v>389.7897050214801</v>
+        <v>389.78970502148</v>
       </c>
       <c r="U46" t="n">
-        <v>323.7501371972928</v>
+        <v>323.7501371972927</v>
       </c>
       <c r="V46" t="n">
-        <v>291.1479799883689</v>
+        <v>291.1479799883688</v>
       </c>
       <c r="W46" t="n">
-        <v>225.0546855870446</v>
+        <v>225.0546855870444</v>
       </c>
       <c r="X46" t="n">
-        <v>219.519186089868</v>
+        <v>203.7603394552101</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.519186089868</v>
+        <v>203.7603394552101</v>
       </c>
     </row>
   </sheetData>
@@ -8699,7 +8699,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
-        <v>446.165956513113</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
         <v>396.0321885132552</v>
@@ -8708,7 +8708,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>212.1327454109547</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05028378053015</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8778,16 +8778,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>108.9869675553034</v>
+        <v>478.8640697279581</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>72.00288230995554</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>152.132813836981</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05028378053015</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9015,16 +9015,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>481.0549106531093</v>
+        <v>481.0549106531092</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>384.4713131240999</v>
       </c>
       <c r="P15" t="n">
-        <v>76.82880193714342</v>
+        <v>76.82880193714347</v>
       </c>
       <c r="Q15" t="n">
-        <v>109.459758471219</v>
+        <v>100.5208644214226</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9249,10 +9249,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>86.85577510404973</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>481.0549106531092</v>
+        <v>83.57741945715873</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9486,7 +9486,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>86.85577510404973</v>
+        <v>204.8152899279099</v>
       </c>
       <c r="N21" t="n">
         <v>481.0549106531092</v>
@@ -9498,7 +9498,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5208644214226</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789575</v>
       </c>
       <c r="K23" t="n">
         <v>337.1112290740114</v>
@@ -9650,7 +9650,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O23" t="n">
-        <v>396.0321885132556</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P23" t="n">
         <v>334.6706564983419</v>
@@ -9714,19 +9714,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05028378053015</v>
+        <v>97.05028378053018</v>
       </c>
       <c r="K24" t="n">
-        <v>88.90373220875439</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>140.2403757170031</v>
       </c>
       <c r="M24" t="n">
-        <v>307.0802823618724</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>481.0549106531093</v>
+        <v>481.0549106531094</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9735,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5208644214226</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,16 +10662,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05028378053018</v>
       </c>
       <c r="K36" t="n">
-        <v>88.90373220875439</v>
+        <v>88.90373220875442</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>326.3804900013298</v>
       </c>
       <c r="M36" t="n">
-        <v>272.9958893883771</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
         <v>481.0549106531092</v>
@@ -10683,7 +10683,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5208644214226</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05028378053018</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10908,10 +10908,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>484.3332662999999</v>
+        <v>120.9401680775444</v>
       </c>
       <c r="N39" t="n">
-        <v>83.57741945715902</v>
+        <v>481.0549106531092</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11142,10 +11142,10 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
-        <v>73.92135488568115</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>484.3332662999999</v>
+        <v>482.5728667459364</v>
       </c>
       <c r="N42" t="n">
         <v>488.9563606107675</v>
@@ -11154,10 +11154,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>268.8614917891356</v>
+        <v>76.82880193714347</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5208644214226</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11385,13 +11385,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>114.8639687844521</v>
+        <v>369.2364462328435</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>76.82880193714347</v>
       </c>
       <c r="Q45" t="n">
         <v>218.4803792452831</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5299779071684</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.798663594716</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>221.1816161624706</v>
       </c>
       <c r="E11" t="n">
         <v>260.9316036710608</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.1417995066252</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5651068917549</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73868095902181</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>206.3467894382927</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.343684916328</v>
       </c>
       <c r="X11" t="n">
-        <v>187.1313587551891</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.5006396670092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.771116669464391e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.5299779071684</v>
       </c>
       <c r="C14" t="n">
-        <v>244.7986635947159</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4183006703717</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.73868095902183</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.68013037605208</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47378334587781</v>
+        <v>98.47378334587785</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2492087872794</v>
+        <v>129.2492087872795</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.3467894382927</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>65.61529995015054</v>
       </c>
       <c r="X14" t="n">
-        <v>248.6751670469427</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.5193869856636</v>
+        <v>264.5006396670092</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1119523.502677669</v>
+        <v>1119523.50267767</v>
       </c>
     </row>
     <row r="6">
@@ -26314,28 +26314,28 @@
         <v>284254.7322145092</v>
       </c>
       <c r="C2" t="n">
-        <v>284254.7322145092</v>
+        <v>284254.7322145093</v>
       </c>
       <c r="D2" t="n">
-        <v>284254.7322145093</v>
+        <v>284254.7322145091</v>
       </c>
       <c r="E2" t="n">
-        <v>244370.4807931425</v>
+        <v>244370.4807931424</v>
       </c>
       <c r="F2" t="n">
-        <v>244607.3525159231</v>
+        <v>244607.352515923</v>
       </c>
       <c r="G2" t="n">
         <v>284871.7930152278</v>
       </c>
       <c r="H2" t="n">
-        <v>284871.7930152278</v>
+        <v>284871.7930152277</v>
       </c>
       <c r="I2" t="n">
-        <v>284871.7930152277</v>
+        <v>284871.7930152279</v>
       </c>
       <c r="J2" t="n">
-        <v>284871.7930152277</v>
+        <v>284871.7930152276</v>
       </c>
       <c r="K2" t="n">
         <v>284871.7930152277</v>
@@ -26344,16 +26344,16 @@
         <v>284871.7930152276</v>
       </c>
       <c r="M2" t="n">
+        <v>284871.7930152277</v>
+      </c>
+      <c r="N2" t="n">
         <v>284871.7930152279</v>
-      </c>
-      <c r="N2" t="n">
-        <v>284871.7930152278</v>
       </c>
       <c r="O2" t="n">
         <v>284871.793015228</v>
       </c>
       <c r="P2" t="n">
-        <v>284871.7930152281</v>
+        <v>284871.793015228</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>329595.0527053679</v>
+        <v>329595.0527053681</v>
       </c>
       <c r="F3" t="n">
-        <v>627.732886920215</v>
+        <v>627.7328869198666</v>
       </c>
       <c r="G3" t="n">
-        <v>80823.28980974757</v>
+        <v>80823.2898097476</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110159.1303542296</v>
+        <v>110159.1303542295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80823.28980974758</v>
+        <v>80823.28980974763</v>
       </c>
       <c r="M3" t="n">
-        <v>96947.48532284272</v>
+        <v>96947.48532284294</v>
       </c>
       <c r="N3" t="n">
-        <v>536.5960952747811</v>
+        <v>536.5960952745027</v>
       </c>
       <c r="O3" t="n">
-        <v>32703.85816000522</v>
+        <v>32703.85816000519</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>427315.5897743298</v>
       </c>
       <c r="E4" t="n">
-        <v>295202.978743505</v>
+        <v>295202.9787435051</v>
       </c>
       <c r="F4" t="n">
         <v>295422.1406006502</v>
       </c>
       <c r="G4" t="n">
-        <v>360823.0243176459</v>
+        <v>360823.024317646</v>
       </c>
       <c r="H4" t="n">
-        <v>360823.0243176459</v>
+        <v>360823.024317646</v>
       </c>
       <c r="I4" t="n">
-        <v>360823.0243176459</v>
+        <v>360823.024317646</v>
       </c>
       <c r="J4" t="n">
-        <v>359403.0198487456</v>
+        <v>359403.0198487455</v>
       </c>
       <c r="K4" t="n">
         <v>359403.0198487455</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38911.21502510817</v>
+        <v>38911.21502510823</v>
       </c>
       <c r="F5" t="n">
-        <v>39044.41815335743</v>
+        <v>39044.41815335742</v>
       </c>
       <c r="G5" t="n">
-        <v>47537.83459212702</v>
+        <v>47537.83459212701</v>
       </c>
       <c r="H5" t="n">
-        <v>47537.83459212702</v>
+        <v>47537.83459212701</v>
       </c>
       <c r="I5" t="n">
         <v>47537.83459212702</v>
@@ -26497,7 +26497,7 @@
         <v>58683.10544796675</v>
       </c>
       <c r="L5" t="n">
-        <v>58683.10544796675</v>
+        <v>58683.10544796676</v>
       </c>
       <c r="M5" t="n">
         <v>47537.83459212702</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176688.4575598206</v>
+        <v>-176692.8651369686</v>
       </c>
       <c r="C6" t="n">
-        <v>-176688.4575598208</v>
+        <v>-176692.8651369686</v>
       </c>
       <c r="D6" t="n">
-        <v>-176688.4575598205</v>
+        <v>-176692.8651369687</v>
       </c>
       <c r="E6" t="n">
-        <v>-419338.7656808385</v>
+        <v>-419628.0607681396</v>
       </c>
       <c r="F6" t="n">
-        <v>-90486.93912500481</v>
+        <v>-90774.54227142807</v>
       </c>
       <c r="G6" t="n">
-        <v>-204312.3557042927</v>
+        <v>-204312.3557042928</v>
       </c>
       <c r="H6" t="n">
+        <v>-123489.0658945453</v>
+      </c>
+      <c r="I6" t="n">
         <v>-123489.0658945451</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-123489.0658945452</v>
       </c>
       <c r="J6" t="n">
         <v>-243373.4626357143</v>
@@ -26552,16 +26552,16 @@
         <v>-214037.6220912324</v>
       </c>
       <c r="M6" t="n">
-        <v>-220436.5512173878</v>
+        <v>-220436.5512173884</v>
       </c>
       <c r="N6" t="n">
-        <v>-124025.66198982</v>
+        <v>-124025.6619898197</v>
       </c>
       <c r="O6" t="n">
         <v>-156281.0567236992</v>
       </c>
       <c r="P6" t="n">
-        <v>-123577.1985636939</v>
+        <v>-123577.198563694</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>122.1864320842266</v>
       </c>
       <c r="F2" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="G2" t="n">
         <v>223.2155443464111</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="F3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="G3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="H3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="I3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="J3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="K3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="L3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="M3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="N3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="O3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="P3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
     </row>
     <row r="4">
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.0766880244584</v>
+        <v>424.0766880244594</v>
       </c>
       <c r="F4" t="n">
-        <v>426.2675289496107</v>
+        <v>426.2675289496106</v>
       </c>
       <c r="G4" t="n">
-        <v>426.2675289496107</v>
+        <v>426.2675289496106</v>
       </c>
       <c r="H4" t="n">
-        <v>426.2675289496107</v>
+        <v>426.2675289496106</v>
       </c>
       <c r="I4" t="n">
         <v>426.2675289496108</v>
@@ -26817,13 +26817,13 @@
         <v>721.7549121685622</v>
       </c>
       <c r="L4" t="n">
-        <v>721.7549121685622</v>
+        <v>721.7549121685623</v>
       </c>
       <c r="M4" t="n">
-        <v>426.2675289496107</v>
+        <v>426.2675289496106</v>
       </c>
       <c r="N4" t="n">
-        <v>426.2675289496107</v>
+        <v>426.2675289496106</v>
       </c>
       <c r="O4" t="n">
         <v>434.1689789072689</v>
@@ -26917,7 +26917,7 @@
         <v>122.1864320842266</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>101.0291122621845</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.05828682411273</v>
+        <v>41.05828682411268</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>101.0291122621845</v>
       </c>
       <c r="M2" t="n">
-        <v>81.12814526011397</v>
+        <v>81.128145260114</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.50295790780602</v>
+        <v>38.50295790780595</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9752859785435</v>
+        <v>130.9752859785434</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.0766880244584</v>
+        <v>424.0766880244594</v>
       </c>
       <c r="F4" t="n">
-        <v>2.190840925152315</v>
+        <v>2.190840925151178</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>128.5893048055069</v>
+        <v>128.5893048055077</v>
       </c>
       <c r="N4" t="n">
-        <v>2.190840925152315</v>
+        <v>2.190840925151178</v>
       </c>
       <c r="O4" t="n">
-        <v>7.901449957658201</v>
+        <v>7.901449957658315</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>122.1864320842266</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>101.0291122621845</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.05828682411273</v>
+        <v>41.05828682411268</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.0766880244584</v>
+        <v>424.0766880244594</v>
       </c>
       <c r="N4" t="n">
-        <v>2.190840925152315</v>
+        <v>2.190840925151178</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.93755311447202</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="D12" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28184,10 +28184,10 @@
         <v>122.1864320842266</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7416892983144</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,19 +28220,19 @@
         <v>122.1864320842266</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>122.1864320842266</v>
       </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
       <c r="V12" t="n">
-        <v>122.1864320842266</v>
+        <v>91.76476937698075</v>
       </c>
       <c r="W12" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="C14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="D14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="E14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="F14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="G14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="H14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="I14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>108.7759430713306</v>
       </c>
       <c r="S14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="T14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="U14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="V14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="W14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="X14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>113.8006422095392</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="C15" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="F15" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="G15" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>68.41816873294007</v>
       </c>
       <c r="I15" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,19 +28451,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.20360100342836</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="V15" t="n">
-        <v>122.1864320842267</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="C16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="D16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="E16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="F16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="G16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="H16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="I16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="K16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="L16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="M16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="N16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="O16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="P16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="R16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="S16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="T16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="U16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="V16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="W16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="X16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.1864320842267</v>
+        <v>122.1864320842266</v>
       </c>
     </row>
     <row r="17">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>107.2928078791699</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -28649,7 +28649,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>13.53588625524574</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2470008911528</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>223.2155443464111</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -28740,10 +28740,10 @@
         <v>159.5341731615887</v>
       </c>
       <c r="I19" t="n">
-        <v>118.2779187030177</v>
+        <v>146.6558214528623</v>
       </c>
       <c r="J19" t="n">
-        <v>72.1405695334325</v>
+        <v>72.14056953343251</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.98343169308811</v>
+        <v>59.98343169308812</v>
       </c>
       <c r="R19" t="n">
         <v>162.7714138263417</v>
@@ -28782,7 +28782,7 @@
         <v>223.2155443464111</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2155443464111</v>
+        <v>27.50108866536425</v>
       </c>
       <c r="X19" t="n">
         <v>223.2155443464111</v>
@@ -28928,16 +28928,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>68.18016267141046</v>
+        <v>163.72878054603</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U21" t="n">
-        <v>223.2155443464111</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>223.2155443464111</v>
+        <v>153.6354699270503</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>139.275501238335</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -28971,7 +28971,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.6534039881795</v>
       </c>
       <c r="H22" t="n">
         <v>159.5341731615887</v>
@@ -28980,7 +28980,7 @@
         <v>146.6558214528623</v>
       </c>
       <c r="J22" t="n">
-        <v>72.1405695334325</v>
+        <v>72.14056953343251</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.98343169308811</v>
+        <v>59.98343169308812</v>
       </c>
       <c r="R22" t="n">
         <v>162.7714138263417</v>
@@ -29019,7 +29019,7 @@
         <v>223.2155443464111</v>
       </c>
       <c r="W22" t="n">
-        <v>223.2155443464111</v>
+        <v>27.50108866536431</v>
       </c>
       <c r="X22" t="n">
         <v>223.2155443464111</v>
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>148.8686358655007</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.8305806358114</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -29211,13 +29211,13 @@
         <v>167.6534039881795</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.5341731615887</v>
       </c>
       <c r="I25" t="n">
         <v>146.6558214528623</v>
       </c>
       <c r="J25" t="n">
-        <v>72.1405695334325</v>
+        <v>72.14056953343251</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.98343169308811</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>162.7714138263417</v>
@@ -29259,10 +29259,10 @@
         <v>223.2155443464111</v>
       </c>
       <c r="X25" t="n">
-        <v>223.2155443464111</v>
+        <v>87.48452035845241</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.5683913483101</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -29354,10 +29354,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>25.89582725284549</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>25.89582725284525</v>
       </c>
       <c r="E27" t="n">
         <v>142.0873990862972</v>
@@ -29402,22 +29402,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>142.0873990862972</v>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="W27" t="n">
-        <v>142.0873990862972</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>142.0873990862972</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29454,25 +29454,25 @@
         <v>142.0873990862972</v>
       </c>
       <c r="J28" t="n">
-        <v>72.1405695334325</v>
+        <v>72.14056953343251</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>142.0873990862972</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>142.0873990862972</v>
       </c>
-      <c r="O28" t="n">
-        <v>12.12069490382451</v>
-      </c>
       <c r="P28" t="n">
-        <v>142.0873990862972</v>
+        <v>12.12069490382494</v>
       </c>
       <c r="Q28" t="n">
         <v>142.0873990862972</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>142.0873990862972</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>142.0873990862972</v>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>97.52517703921558</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>20.3215760357871</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
     </row>
     <row r="31">
@@ -29694,7 +29694,7 @@
         <v>142.0873990862972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.27783274416919</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>142.0873990862972</v>
@@ -29703,16 +29703,16 @@
         <v>142.0873990862972</v>
       </c>
       <c r="N31" t="n">
+        <v>24.27783274416947</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>142.0873990862972</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
       <c r="Q31" t="n">
-        <v>59.98343169308811</v>
+        <v>59.98343169308812</v>
       </c>
       <c r="R31" t="n">
         <v>142.0873990862972</v>
@@ -29776,7 +29776,7 @@
         <v>142.0873990862972</v>
       </c>
       <c r="L32" t="n">
-        <v>142.0873990862965</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="M32" t="n">
         <v>142.0873990862972</v>
@@ -29828,73 +29828,73 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>107.7416892983144</v>
+      </c>
+      <c r="I33" t="n">
+        <v>76.8039586076267</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>77.20360100342837</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>142.0873990862972</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>48.32137651607053</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>142.0873990862972</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>77.20360100342836</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>142.0873990862972</v>
-      </c>
-      <c r="X33" t="n">
-        <v>90.77962533571437</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29928,7 +29928,7 @@
         <v>142.0873990862972</v>
       </c>
       <c r="J34" t="n">
-        <v>84.26126443725704</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="K34" t="n">
         <v>142.0873990862972</v>
@@ -29937,7 +29937,7 @@
         <v>142.0873990862972</v>
       </c>
       <c r="M34" t="n">
-        <v>142.0873990862972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>84.26126443725718</v>
       </c>
       <c r="Q34" t="n">
         <v>142.0873990862972</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>116.6708793203025</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H36" t="n">
         <v>107.7416892983144</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,22 +30116,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U36" t="n">
         <v>223.2155443464112</v>
       </c>
       <c r="V36" t="n">
-        <v>223.2155443464112</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>223.2155443464112</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>58.16634637806186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -30165,7 +30165,7 @@
         <v>146.6558214528623</v>
       </c>
       <c r="J37" t="n">
-        <v>72.1405695334325</v>
+        <v>72.14056953343251</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.98343169308811</v>
+        <v>59.98343169308812</v>
       </c>
       <c r="R37" t="n">
         <v>162.7714138263417</v>
@@ -30195,7 +30195,7 @@
         <v>218.2413475643591</v>
       </c>
       <c r="T37" t="n">
-        <v>176.5066551798834</v>
+        <v>223.2155443464112</v>
       </c>
       <c r="U37" t="n">
         <v>223.2155443464112</v>
@@ -30204,7 +30204,7 @@
         <v>223.2155443464112</v>
       </c>
       <c r="W37" t="n">
-        <v>223.2155443464112</v>
+        <v>27.50108866536397</v>
       </c>
       <c r="X37" t="n">
         <v>223.2155443464112</v>
@@ -30308,10 +30308,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.7414897785979</v>
@@ -30320,7 +30320,7 @@
         <v>107.7416892983144</v>
       </c>
       <c r="I39" t="n">
-        <v>12.50993830038234</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7287805460299</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>223.2155443464112</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>55.71548179537322</v>
       </c>
     </row>
     <row r="40">
@@ -30381,7 +30381,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -30396,13 +30396,13 @@
         <v>167.6534039881795</v>
       </c>
       <c r="H40" t="n">
-        <v>159.5341731615887</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>146.6558214528623</v>
       </c>
       <c r="J40" t="n">
-        <v>72.1405695334325</v>
+        <v>72.14056953343251</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.98343169308811</v>
+        <v>59.98343169308812</v>
       </c>
       <c r="R40" t="n">
         <v>162.7714138263417</v>
@@ -30435,7 +30435,7 @@
         <v>223.2155443464112</v>
       </c>
       <c r="U40" t="n">
-        <v>194.8376415965662</v>
+        <v>187.0352618269525</v>
       </c>
       <c r="V40" t="n">
         <v>223.2155443464112</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>31.2865493272933</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>140.0624923986238</v>
+        <v>108.7759430713306</v>
       </c>
       <c r="S41" t="n">
         <v>193.8665624602787</v>
@@ -30542,16 +30542,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.20360100342836</v>
+        <v>77.20360100342837</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7287805460299</v>
+        <v>88.98758539881734</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>152.6185698809377</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -30630,7 +30630,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>133.7211594031853</v>
+        <v>167.6534039881795</v>
       </c>
       <c r="H43" t="n">
         <v>159.5341731615887</v>
@@ -30639,7 +30639,7 @@
         <v>146.6558214528623</v>
       </c>
       <c r="J43" t="n">
-        <v>72.1405695334325</v>
+        <v>72.14056953343251</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.98343169308811</v>
+        <v>59.98343169308812</v>
       </c>
       <c r="R43" t="n">
         <v>162.7714138263417</v>
@@ -30669,7 +30669,7 @@
         <v>218.2413475643591</v>
       </c>
       <c r="T43" t="n">
-        <v>220.6602154301045</v>
+        <v>37.72240433059099</v>
       </c>
       <c r="U43" t="n">
         <v>220.6602154301045</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>31.28654932729313</v>
+        <v>31.28654932729341</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30776,25 +30776,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>66.88040573471146</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>51.54462845496725</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,25 +30824,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7287805460299</v>
+        <v>163.72878054603</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>220.6602154301045</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -30867,7 +30867,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7992843793497</v>
+        <v>167.6534039881795</v>
       </c>
       <c r="H46" t="n">
         <v>159.5341731615887</v>
@@ -30876,7 +30876,7 @@
         <v>146.6558214528623</v>
       </c>
       <c r="J46" t="n">
-        <v>72.1405695334325</v>
+        <v>72.14056953343251</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.98343169308811</v>
+        <v>59.98343169308812</v>
       </c>
       <c r="R46" t="n">
         <v>162.7714138263417</v>
@@ -30918,7 +30918,7 @@
         <v>220.6602154301045</v>
       </c>
       <c r="X46" t="n">
-        <v>220.6602154301045</v>
+        <v>205.0589572617933</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H11" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I11" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J11" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K11" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L11" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M11" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N11" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O11" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P11" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R11" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S11" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T11" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H12" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I12" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J12" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K12" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L12" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M12" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N12" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O12" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P12" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R12" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S12" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T12" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H13" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I13" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J13" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K13" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L13" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M13" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N13" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O13" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P13" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R13" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S13" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T13" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H14" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I14" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J14" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K14" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L14" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M14" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N14" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O14" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P14" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R14" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S14" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T14" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H15" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I15" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J15" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K15" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L15" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M15" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N15" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O15" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P15" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R15" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S15" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T15" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H16" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I16" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J16" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K16" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L16" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M16" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N16" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O16" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P16" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R16" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S16" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T16" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H17" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I17" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J17" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K17" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L17" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M17" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N17" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O17" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P17" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R17" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S17" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T17" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H18" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I18" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J18" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K18" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L18" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M18" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N18" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O18" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P18" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R18" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S18" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T18" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H19" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I19" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J19" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K19" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L19" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M19" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N19" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O19" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P19" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R19" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S19" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T19" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H20" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I20" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J20" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K20" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L20" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M20" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N20" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O20" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P20" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R20" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S20" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T20" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H21" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I21" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J21" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K21" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L21" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M21" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N21" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O21" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P21" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R21" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S21" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T21" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H22" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I22" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J22" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K22" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L22" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M22" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N22" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O22" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P22" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R22" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S22" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T22" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H23" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I23" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J23" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K23" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L23" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M23" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N23" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O23" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P23" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R23" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S23" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T23" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H24" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I24" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J24" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K24" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L24" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M24" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N24" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O24" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P24" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R24" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S24" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T24" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H25" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I25" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J25" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K25" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L25" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M25" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N25" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O25" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P25" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R25" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S25" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T25" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H26" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I26" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J26" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K26" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L26" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M26" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N26" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O26" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P26" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R26" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S26" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T26" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H27" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I27" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J27" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K27" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L27" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M27" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N27" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O27" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P27" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R27" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S27" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T27" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H28" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I28" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J28" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K28" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L28" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M28" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N28" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O28" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P28" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R28" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S28" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T28" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H29" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I29" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J29" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K29" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L29" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M29" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N29" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O29" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P29" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R29" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S29" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T29" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H30" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I30" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J30" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K30" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L30" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M30" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N30" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O30" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P30" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R30" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S30" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T30" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H31" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I31" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J31" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K31" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L31" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M31" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N31" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O31" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P31" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R31" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S31" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T31" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H32" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I32" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J32" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K32" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L32" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M32" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N32" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O32" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P32" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R32" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S32" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T32" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H33" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I33" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J33" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K33" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L33" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M33" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N33" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O33" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P33" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R33" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S33" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T33" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H34" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I34" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J34" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K34" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L34" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M34" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N34" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O34" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P34" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R34" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S34" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T34" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H35" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I35" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J35" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K35" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L35" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M35" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N35" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O35" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P35" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R35" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S35" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T35" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H36" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I36" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J36" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K36" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L36" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M36" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N36" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O36" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P36" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R36" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S36" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T36" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H37" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I37" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J37" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K37" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L37" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M37" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N37" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O37" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P37" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R37" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S37" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T37" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H38" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I38" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J38" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K38" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L38" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M38" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N38" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O38" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P38" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R38" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S38" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T38" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H39" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I39" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J39" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K39" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L39" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M39" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N39" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O39" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P39" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R39" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S39" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T39" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H40" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I40" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J40" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K40" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L40" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M40" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N40" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O40" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P40" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R40" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S40" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T40" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H41" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I41" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J41" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K41" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L41" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M41" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N41" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O41" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P41" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R41" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S41" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T41" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H42" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I42" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J42" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K42" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L42" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M42" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N42" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O42" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P42" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R42" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S42" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T42" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H43" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I43" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J43" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K43" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L43" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M43" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N43" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O43" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P43" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R43" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S43" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T43" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.526533812979069</v>
+        <v>0.5265338129790685</v>
       </c>
       <c r="H44" t="n">
-        <v>5.392364412171891</v>
+        <v>5.392364412171887</v>
       </c>
       <c r="I44" t="n">
-        <v>20.29919482487557</v>
+        <v>20.29919482487556</v>
       </c>
       <c r="J44" t="n">
-        <v>44.68889920933229</v>
+        <v>44.68889920933226</v>
       </c>
       <c r="K44" t="n">
-        <v>66.97707551273629</v>
+        <v>66.97707551273625</v>
       </c>
       <c r="L44" t="n">
-        <v>83.09098469169449</v>
+        <v>83.09098469169444</v>
       </c>
       <c r="M44" t="n">
-        <v>92.454730388261</v>
+        <v>92.45473038826094</v>
       </c>
       <c r="N44" t="n">
-        <v>93.95074458438779</v>
+        <v>93.95074458438773</v>
       </c>
       <c r="O44" t="n">
-        <v>88.71502398157718</v>
+        <v>88.71502398157712</v>
       </c>
       <c r="P44" t="n">
-        <v>75.71622047365639</v>
+        <v>75.71622047365635</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.85972829634347</v>
+        <v>56.85972829634343</v>
       </c>
       <c r="R44" t="n">
-        <v>33.07487962954647</v>
+        <v>33.07487962954644</v>
       </c>
       <c r="S44" t="n">
-        <v>11.99838926326055</v>
+        <v>11.99838926326054</v>
       </c>
       <c r="T44" t="n">
-        <v>2.304901766315875</v>
+        <v>2.304901766315874</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04212270503832551</v>
+        <v>0.04212270503832548</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2817204264444143</v>
+        <v>0.2817204264444141</v>
       </c>
       <c r="H45" t="n">
-        <v>2.720826223818423</v>
+        <v>2.720826223818421</v>
       </c>
       <c r="I45" t="n">
-        <v>9.699584857844968</v>
+        <v>9.699584857844961</v>
       </c>
       <c r="J45" t="n">
-        <v>26.61640221946987</v>
+        <v>26.61640221946985</v>
       </c>
       <c r="K45" t="n">
-        <v>45.49167079124562</v>
+        <v>45.4916707912456</v>
       </c>
       <c r="L45" t="n">
-        <v>61.16916539969619</v>
+        <v>61.16916539969615</v>
       </c>
       <c r="M45" t="n">
-        <v>71.38153085830619</v>
+        <v>71.38153085830615</v>
       </c>
       <c r="N45" t="n">
-        <v>73.27078757775142</v>
+        <v>73.27078757775138</v>
       </c>
       <c r="O45" t="n">
-        <v>67.02845602337781</v>
+        <v>67.02845602337777</v>
       </c>
       <c r="P45" t="n">
-        <v>53.79624529182856</v>
+        <v>53.79624529182853</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.9613653124484</v>
+        <v>35.96136531244838</v>
       </c>
       <c r="R45" t="n">
-        <v>17.49137875766285</v>
+        <v>17.49137875766284</v>
       </c>
       <c r="S45" t="n">
-        <v>5.232833359614447</v>
+        <v>5.232833359614443</v>
       </c>
       <c r="T45" t="n">
-        <v>1.135531017115863</v>
+        <v>1.135531017115862</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01853423858186937</v>
+        <v>0.01853423858186936</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.236184941928521</v>
+        <v>0.2361849419285209</v>
       </c>
       <c r="H46" t="n">
-        <v>2.099898847328125</v>
+        <v>2.099898847328124</v>
       </c>
       <c r="I46" t="n">
-        <v>7.102725344541343</v>
+        <v>7.102725344541339</v>
       </c>
       <c r="J46" t="n">
-        <v>16.69827539434644</v>
+        <v>16.69827539434642</v>
       </c>
       <c r="K46" t="n">
-        <v>27.44039598042271</v>
+        <v>27.44039598042269</v>
       </c>
       <c r="L46" t="n">
-        <v>35.11425945726394</v>
+        <v>35.11425945726392</v>
       </c>
       <c r="M46" t="n">
-        <v>37.02306321521353</v>
+        <v>37.0230632152135</v>
       </c>
       <c r="N46" t="n">
-        <v>36.14273752257088</v>
+        <v>36.14273752257086</v>
       </c>
       <c r="O46" t="n">
-        <v>33.38366797367861</v>
+        <v>33.38366797367858</v>
       </c>
       <c r="P46" t="n">
-        <v>28.56549515833675</v>
+        <v>28.56549515833673</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.77726818276007</v>
+        <v>19.77726818276005</v>
       </c>
       <c r="R46" t="n">
-        <v>10.61973384344059</v>
+        <v>10.61973384344058</v>
       </c>
       <c r="S46" t="n">
-        <v>4.116059397063406</v>
+        <v>4.116059397063403</v>
       </c>
       <c r="T46" t="n">
-        <v>1.009153842785499</v>
+        <v>1.009153842785498</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01288281501428298</v>
+        <v>0.01288281501428297</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.02962207476988</v>
+        <v>44.02962207476985</v>
       </c>
       <c r="K11" t="n">
         <v>189.5006998178916</v>
@@ -35419,16 +35419,16 @@
         <v>335.3612278242159</v>
       </c>
       <c r="N11" t="n">
-        <v>316.4389640908246</v>
+        <v>325.113808966175</v>
       </c>
       <c r="O11" t="n">
-        <v>260.4014563586878</v>
+        <v>260.4014563586877</v>
       </c>
       <c r="P11" t="n">
         <v>184.9347061106105</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.91927095505608</v>
+        <v>52.24442607970991</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>34.084392973495</v>
       </c>
       <c r="K12" t="n">
         <v>186.1401142843274</v>
@@ -35495,19 +35495,19 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M12" t="n">
-        <v>417.1341140843383</v>
+        <v>417.1341140843382</v>
       </c>
       <c r="N12" t="n">
-        <v>54.19958585180487</v>
+        <v>424.0766880244594</v>
       </c>
       <c r="O12" t="n">
-        <v>337.6139297378432</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>254.3724774483912</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.9595148238605</v>
+        <v>51.61194941555839</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.04586255079414</v>
+        <v>50.04586255079411</v>
       </c>
       <c r="K13" t="n">
         <v>134.852418346816</v>
       </c>
       <c r="L13" t="n">
-        <v>194.7618217704999</v>
+        <v>194.7618217704998</v>
       </c>
       <c r="M13" t="n">
         <v>209.4069032963487</v>
@@ -35586,7 +35586,7 @@
         <v>156.8739491412472</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20300039113853</v>
+        <v>62.2030003911385</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.02962207476988</v>
+        <v>44.02962207476985</v>
       </c>
       <c r="K14" t="n">
         <v>189.5006998178916</v>
@@ -35656,7 +35656,7 @@
         <v>335.3612278242159</v>
       </c>
       <c r="N14" t="n">
-        <v>325.1138089661752</v>
+        <v>325.113808966175</v>
       </c>
       <c r="O14" t="n">
         <v>260.4014563586878</v>
@@ -35665,7 +35665,7 @@
         <v>184.9347061106105</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.91927095505608</v>
+        <v>60.91927095505605</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>34.084392973495</v>
       </c>
       <c r="K15" t="n">
         <v>186.1401142843274</v>
@@ -35732,19 +35732,19 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M15" t="n">
-        <v>417.1341140843383</v>
+        <v>417.1341140843382</v>
       </c>
       <c r="N15" t="n">
-        <v>426.2675289496107</v>
+        <v>426.2675289496106</v>
       </c>
       <c r="O15" t="n">
-        <v>337.6139297378432</v>
+        <v>312.4684308141443</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.938894049796398</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.04586255079417</v>
+        <v>50.04586255079411</v>
       </c>
       <c r="K16" t="n">
         <v>134.852418346816</v>
       </c>
       <c r="L16" t="n">
-        <v>194.7618217704999</v>
+        <v>194.7618217704998</v>
       </c>
       <c r="M16" t="n">
-        <v>209.4069032963488</v>
+        <v>209.4069032963487</v>
       </c>
       <c r="N16" t="n">
         <v>212.5261892714354</v>
@@ -35820,10 +35820,10 @@
         <v>190.1383080878763</v>
       </c>
       <c r="P16" t="n">
-        <v>156.8739491412473</v>
+        <v>156.8739491412472</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20300039113856</v>
+        <v>62.2030003911385</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.02962207476988</v>
+        <v>44.02962207476985</v>
       </c>
       <c r="K17" t="n">
         <v>189.5006998178916</v>
@@ -35893,16 +35893,16 @@
         <v>335.3612278242159</v>
       </c>
       <c r="N17" t="n">
-        <v>325.1138089661752</v>
+        <v>325.113808966175</v>
       </c>
       <c r="O17" t="n">
-        <v>260.4014563586878</v>
+        <v>260.4014563586877</v>
       </c>
       <c r="P17" t="n">
         <v>184.9347061106105</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.91927095505608</v>
+        <v>60.91927095505605</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.08439297349502</v>
+        <v>34.084392973495</v>
       </c>
       <c r="K18" t="n">
         <v>186.1401142843274</v>
@@ -35969,13 +35969,13 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M18" t="n">
-        <v>19.65662288838806</v>
+        <v>417.1341140843382</v>
       </c>
       <c r="N18" t="n">
-        <v>426.2675289496107</v>
+        <v>28.79003775366013</v>
       </c>
       <c r="O18" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P18" t="n">
         <v>254.3724774483912</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.66598626258936</v>
+        <v>12.66598626258934</v>
       </c>
       <c r="L19" t="n">
-        <v>72.57538968627323</v>
+        <v>72.57538968627321</v>
       </c>
       <c r="M19" t="n">
-        <v>87.22047121212209</v>
+        <v>87.22047121212206</v>
       </c>
       <c r="N19" t="n">
-        <v>90.33975718720878</v>
+        <v>90.33975718720876</v>
       </c>
       <c r="O19" t="n">
-        <v>67.95187600364966</v>
+        <v>67.95187600364964</v>
       </c>
       <c r="P19" t="n">
-        <v>34.68751705702059</v>
+        <v>34.68751705702057</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.02962207476988</v>
+        <v>44.02962207476985</v>
       </c>
       <c r="K20" t="n">
         <v>189.5006998178916</v>
@@ -36130,7 +36130,7 @@
         <v>335.3612278242159</v>
       </c>
       <c r="N20" t="n">
-        <v>325.1138089661752</v>
+        <v>325.113808966175</v>
       </c>
       <c r="O20" t="n">
         <v>260.4014563586878</v>
@@ -36139,7 +36139,7 @@
         <v>184.9347061106105</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.91927095505608</v>
+        <v>60.91927095505605</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.08439297349502</v>
+        <v>34.084392973495</v>
       </c>
       <c r="K21" t="n">
         <v>186.1401142843274</v>
@@ -36206,19 +36206,19 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M21" t="n">
-        <v>19.65662288838806</v>
+        <v>137.6161377122482</v>
       </c>
       <c r="N21" t="n">
-        <v>426.2675289496107</v>
+        <v>426.2675289496106</v>
       </c>
       <c r="O21" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P21" t="n">
         <v>254.3724774483912</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.9595148238605</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.66598626258936</v>
+        <v>12.66598626258934</v>
       </c>
       <c r="L22" t="n">
-        <v>72.57538968627323</v>
+        <v>72.57538968627321</v>
       </c>
       <c r="M22" t="n">
-        <v>87.22047121212209</v>
+        <v>87.22047121212206</v>
       </c>
       <c r="N22" t="n">
-        <v>90.33975718720878</v>
+        <v>90.33975718720876</v>
       </c>
       <c r="O22" t="n">
-        <v>67.95187600364966</v>
+        <v>67.95187600364964</v>
       </c>
       <c r="P22" t="n">
-        <v>34.68751705702059</v>
+        <v>34.68751705702057</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>44.02962207476988</v>
+        <v>44.02962207477059</v>
       </c>
       <c r="K23" t="n">
         <v>189.5006998178916</v>
@@ -36367,16 +36367,16 @@
         <v>335.3612278242159</v>
       </c>
       <c r="N23" t="n">
-        <v>325.1138089661752</v>
+        <v>325.113808966175</v>
       </c>
       <c r="O23" t="n">
-        <v>260.4014563586882</v>
+        <v>260.4014563586877</v>
       </c>
       <c r="P23" t="n">
         <v>184.9347061106105</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.91927095505608</v>
+        <v>60.91927095505605</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>186.1401142843274</v>
       </c>
       <c r="L24" t="n">
-        <v>311.7526042299164</v>
+        <v>66.31902083132194</v>
       </c>
       <c r="M24" t="n">
-        <v>239.8811301462107</v>
+        <v>417.1341140843382</v>
       </c>
       <c r="N24" t="n">
         <v>426.2675289496108</v>
       </c>
       <c r="O24" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P24" t="n">
         <v>254.3724774483912</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.9595148238605</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.66598626258936</v>
+        <v>12.66598626258934</v>
       </c>
       <c r="L25" t="n">
-        <v>72.57538968627323</v>
+        <v>72.57538968627321</v>
       </c>
       <c r="M25" t="n">
-        <v>87.22047121212209</v>
+        <v>87.22047121212206</v>
       </c>
       <c r="N25" t="n">
-        <v>90.33975718720878</v>
+        <v>90.33975718720876</v>
       </c>
       <c r="O25" t="n">
-        <v>67.95187600364966</v>
+        <v>67.95187600364964</v>
       </c>
       <c r="P25" t="n">
-        <v>34.68751705702059</v>
+        <v>34.68751705702057</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1170211610671</v>
+        <v>186.117021161067</v>
       </c>
       <c r="K26" t="n">
-        <v>331.5880989041888</v>
+        <v>331.5880989041887</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6737923147226</v>
+        <v>429.6737923147225</v>
       </c>
       <c r="M26" t="n">
-        <v>477.4486269105132</v>
+        <v>477.448626910513</v>
       </c>
       <c r="N26" t="n">
-        <v>467.2012080524723</v>
+        <v>467.2012080524722</v>
       </c>
       <c r="O26" t="n">
-        <v>402.488855444985</v>
+        <v>402.4888554449849</v>
       </c>
       <c r="P26" t="n">
-        <v>327.0221051969078</v>
+        <v>327.0221051969077</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0066700413533</v>
+        <v>203.0066700413532</v>
       </c>
       <c r="R26" t="n">
-        <v>33.3114560149666</v>
+        <v>33.31145601496655</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.08439297349502</v>
+        <v>34.084392973495</v>
       </c>
       <c r="K27" t="n">
         <v>186.1401142843274</v>
@@ -36680,13 +36680,13 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M27" t="n">
-        <v>417.1341140843383</v>
+        <v>417.1341140843382</v>
       </c>
       <c r="N27" t="n">
-        <v>443.7286876137971</v>
+        <v>443.728687613797</v>
       </c>
       <c r="O27" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P27" t="n">
         <v>254.3724774483912</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.66598626258936</v>
+        <v>154.7533853488865</v>
       </c>
       <c r="L28" t="n">
-        <v>214.6627887725704</v>
+        <v>72.57538968627321</v>
       </c>
       <c r="M28" t="n">
-        <v>87.22047121212209</v>
+        <v>229.3078702984192</v>
       </c>
       <c r="N28" t="n">
-        <v>232.427156273506</v>
+        <v>90.33975718720876</v>
       </c>
       <c r="O28" t="n">
-        <v>80.07257090747417</v>
+        <v>210.0392750899468</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7749161433178</v>
+        <v>46.80821196084551</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.1039673932091</v>
+        <v>82.10396739320906</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>429.6737923147225</v>
       </c>
       <c r="M29" t="n">
-        <v>477.4486269105131</v>
+        <v>477.448626910513</v>
       </c>
       <c r="N29" t="n">
-        <v>467.2012080524723</v>
+        <v>467.2012080524722</v>
       </c>
       <c r="O29" t="n">
         <v>402.4888554449849</v>
@@ -36850,10 +36850,10 @@
         <v>327.0221051969077</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0066700413533</v>
+        <v>203.0066700413532</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31145601496658</v>
+        <v>33.31145601496655</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.08439297349502</v>
+        <v>34.084392973495</v>
       </c>
       <c r="K30" t="n">
         <v>186.1401142843274</v>
@@ -36917,13 +36917,13 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M30" t="n">
-        <v>417.1341140843383</v>
+        <v>417.1341140843382</v>
       </c>
       <c r="N30" t="n">
-        <v>443.7286876137971</v>
+        <v>443.728687613797</v>
       </c>
       <c r="O30" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P30" t="n">
         <v>254.3724774483912</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.94682955286468</v>
+        <v>69.94682955286467</v>
       </c>
       <c r="K31" t="n">
-        <v>36.94381900675855</v>
+        <v>12.66598626258934</v>
       </c>
       <c r="L31" t="n">
         <v>214.6627887725704</v>
       </c>
       <c r="M31" t="n">
-        <v>229.3078702984193</v>
+        <v>229.3078702984192</v>
       </c>
       <c r="N31" t="n">
-        <v>232.4271562735059</v>
+        <v>114.6175899313782</v>
       </c>
       <c r="O31" t="n">
-        <v>67.95187600364966</v>
+        <v>67.95187600364964</v>
       </c>
       <c r="P31" t="n">
-        <v>34.68751705702059</v>
+        <v>176.7749161433177</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1170211610671</v>
+        <v>186.117021161067</v>
       </c>
       <c r="K32" t="n">
         <v>331.5880989041888</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6737923147218</v>
+        <v>429.6737923147225</v>
       </c>
       <c r="M32" t="n">
-        <v>477.4486269105132</v>
+        <v>477.4486269105131</v>
       </c>
       <c r="N32" t="n">
-        <v>467.2012080524723</v>
+        <v>467.2012080524722</v>
       </c>
       <c r="O32" t="n">
-        <v>402.488855444985</v>
+        <v>402.4888554449849</v>
       </c>
       <c r="P32" t="n">
-        <v>327.0221051969078</v>
+        <v>327.0221051969077</v>
       </c>
       <c r="Q32" t="n">
         <v>203.0066700413533</v>
       </c>
       <c r="R32" t="n">
-        <v>33.3114560149666</v>
+        <v>33.31145601496658</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.08439297349502</v>
+        <v>34.084392973495</v>
       </c>
       <c r="K33" t="n">
         <v>186.1401142843274</v>
@@ -37154,13 +37154,13 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M33" t="n">
-        <v>417.1341140843383</v>
+        <v>417.1341140843382</v>
       </c>
       <c r="N33" t="n">
-        <v>443.7286876137971</v>
+        <v>443.728687613797</v>
       </c>
       <c r="O33" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P33" t="n">
         <v>254.3724774483912</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.12069490382454</v>
+        <v>69.9468295528647</v>
       </c>
       <c r="K34" t="n">
         <v>154.7533853488866</v>
@@ -37233,19 +37233,19 @@
         <v>214.6627887725704</v>
       </c>
       <c r="M34" t="n">
-        <v>229.3078702984193</v>
+        <v>87.22047121212206</v>
       </c>
       <c r="N34" t="n">
-        <v>90.33975718720878</v>
+        <v>90.33975718720876</v>
       </c>
       <c r="O34" t="n">
-        <v>67.95187600364966</v>
+        <v>67.95187600364964</v>
       </c>
       <c r="P34" t="n">
-        <v>34.68751705702059</v>
+        <v>118.9487814942778</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.1039673932091</v>
+        <v>82.10396739320909</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.02962207476988</v>
+        <v>44.02962207476985</v>
       </c>
       <c r="K35" t="n">
         <v>189.5006998178916</v>
@@ -37315,16 +37315,16 @@
         <v>335.3612278242159</v>
       </c>
       <c r="N35" t="n">
-        <v>325.1138089661752</v>
+        <v>325.113808966175</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4014563586878</v>
+        <v>260.4014563586877</v>
       </c>
       <c r="P35" t="n">
         <v>184.9347061106105</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.91927095505608</v>
+        <v>60.91927095505605</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>34.08439297349502</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>311.7526042299164</v>
+        <v>252.4591351156486</v>
       </c>
       <c r="M36" t="n">
-        <v>205.7967371727154</v>
+        <v>417.1341140843382</v>
       </c>
       <c r="N36" t="n">
-        <v>426.2675289496107</v>
+        <v>426.2675289496106</v>
       </c>
       <c r="O36" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P36" t="n">
         <v>254.3724774483912</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.9595148238605</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.66598626258936</v>
+        <v>12.66598626258934</v>
       </c>
       <c r="L37" t="n">
-        <v>72.57538968627323</v>
+        <v>72.57538968627321</v>
       </c>
       <c r="M37" t="n">
-        <v>87.22047121212209</v>
+        <v>87.22047121212206</v>
       </c>
       <c r="N37" t="n">
-        <v>90.33975718720878</v>
+        <v>90.33975718720876</v>
       </c>
       <c r="O37" t="n">
-        <v>67.95187600364966</v>
+        <v>67.95187600364964</v>
       </c>
       <c r="P37" t="n">
-        <v>34.68751705702059</v>
+        <v>34.68751705702057</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.02962207476988</v>
+        <v>44.02962207476985</v>
       </c>
       <c r="K38" t="n">
         <v>189.5006998178916</v>
@@ -37552,16 +37552,16 @@
         <v>335.3612278242159</v>
       </c>
       <c r="N38" t="n">
-        <v>325.1138089661752</v>
+        <v>325.113808966175</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4014563586878</v>
+        <v>260.4014563586877</v>
       </c>
       <c r="P38" t="n">
         <v>184.9347061106105</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.91927095505608</v>
+        <v>60.91927095505605</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.08439297349502</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>186.1401142843274</v>
@@ -37628,13 +37628,13 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M39" t="n">
-        <v>417.1341140843383</v>
+        <v>53.74101586188269</v>
       </c>
       <c r="N39" t="n">
-        <v>28.79003775366047</v>
+        <v>426.2675289496106</v>
       </c>
       <c r="O39" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P39" t="n">
         <v>254.3724774483912</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.66598626258936</v>
+        <v>12.66598626258934</v>
       </c>
       <c r="L40" t="n">
-        <v>72.57538968627323</v>
+        <v>72.57538968627321</v>
       </c>
       <c r="M40" t="n">
-        <v>87.22047121212209</v>
+        <v>87.22047121212206</v>
       </c>
       <c r="N40" t="n">
-        <v>90.33975718720878</v>
+        <v>90.33975718720876</v>
       </c>
       <c r="O40" t="n">
-        <v>67.95187600364966</v>
+        <v>67.95187600364964</v>
       </c>
       <c r="P40" t="n">
-        <v>34.68751705702059</v>
+        <v>34.68751705702057</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>44.02962207476988</v>
+        <v>44.02962207476985</v>
       </c>
       <c r="K41" t="n">
         <v>189.5006998178916</v>
@@ -37789,19 +37789,19 @@
         <v>335.3612278242159</v>
       </c>
       <c r="N41" t="n">
-        <v>325.1138089661752</v>
+        <v>356.4003582934683</v>
       </c>
       <c r="O41" t="n">
-        <v>260.4014563586878</v>
+        <v>260.4014563586877</v>
       </c>
       <c r="P41" t="n">
         <v>184.9347061106105</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.91927095505608</v>
+        <v>60.91927095505605</v>
       </c>
       <c r="R41" t="n">
-        <v>31.28654932729315</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.08439297349502</v>
+        <v>34.084392973495</v>
       </c>
       <c r="K42" t="n">
         <v>186.1401142843274</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>311.7526042299164</v>
       </c>
       <c r="M42" t="n">
-        <v>417.1341140843383</v>
+        <v>415.3737145302746</v>
       </c>
       <c r="N42" t="n">
         <v>434.1689789072689</v>
       </c>
       <c r="O42" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P42" t="n">
-        <v>192.0326898519922</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.9595148238605</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.66598626258936</v>
+        <v>12.66598626258934</v>
       </c>
       <c r="L43" t="n">
-        <v>72.57538968627323</v>
+        <v>72.57538968627321</v>
       </c>
       <c r="M43" t="n">
-        <v>87.22047121212209</v>
+        <v>87.22047121212206</v>
       </c>
       <c r="N43" t="n">
-        <v>90.33975718720878</v>
+        <v>90.33975718720876</v>
       </c>
       <c r="O43" t="n">
-        <v>67.95187600364966</v>
+        <v>67.95187600364964</v>
       </c>
       <c r="P43" t="n">
-        <v>34.68751705702059</v>
+        <v>34.68751705702057</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.02962207476988</v>
+        <v>44.02962207476985</v>
       </c>
       <c r="K44" t="n">
         <v>189.5006998178916</v>
@@ -38023,19 +38023,19 @@
         <v>287.5863932284253</v>
       </c>
       <c r="M44" t="n">
-        <v>366.647777151509</v>
+        <v>366.6477771515093</v>
       </c>
       <c r="N44" t="n">
-        <v>325.1138089661752</v>
+        <v>325.113808966175</v>
       </c>
       <c r="O44" t="n">
-        <v>260.4014563586878</v>
+        <v>260.4014563586877</v>
       </c>
       <c r="P44" t="n">
         <v>184.9347061106105</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.91927095505608</v>
+        <v>60.91927095505605</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.08439297349502</v>
+        <v>34.084392973495</v>
       </c>
       <c r="K45" t="n">
         <v>186.1401142843274</v>
@@ -38102,16 +38102,16 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M45" t="n">
-        <v>417.1341140843383</v>
+        <v>417.1341140843382</v>
       </c>
       <c r="N45" t="n">
-        <v>60.07658708095352</v>
+        <v>314.4490645293449</v>
       </c>
       <c r="O45" t="n">
-        <v>337.6139297378432</v>
+        <v>337.6139297378431</v>
       </c>
       <c r="P45" t="n">
-        <v>254.3724774483912</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>117.9595148238605</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.66598626258936</v>
+        <v>12.66598626258934</v>
       </c>
       <c r="L46" t="n">
-        <v>72.57538968627323</v>
+        <v>72.57538968627321</v>
       </c>
       <c r="M46" t="n">
-        <v>87.22047121212209</v>
+        <v>87.22047121212206</v>
       </c>
       <c r="N46" t="n">
-        <v>90.33975718720878</v>
+        <v>90.33975718720876</v>
       </c>
       <c r="O46" t="n">
-        <v>67.95187600364966</v>
+        <v>67.95187600364964</v>
       </c>
       <c r="P46" t="n">
-        <v>34.68751705702059</v>
+        <v>34.68751705702057</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
